--- a/Data/clustering_numbers.xlsx
+++ b/Data/clustering_numbers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="5">
   <si>
     <t>c1</t>
   </si>
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E442"/>
+  <dimension ref="A1:E405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,16 +411,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.725659694528442</v>
+        <v>3.336404043734471</v>
       </c>
       <c r="C2">
-        <v>3.47874722599112</v>
+        <v>2.616901145406271</v>
       </c>
       <c r="D2">
-        <v>1.612747691656585</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+        <v>2.97484175941454</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.047188694859218</v>
+        <v>3.671420959590589</v>
       </c>
       <c r="C3">
-        <v>3.002905348843067</v>
+        <v>3.40022474440309</v>
       </c>
       <c r="D3">
-        <v>2.049252587279577</v>
+        <v>1.907944525571688</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -445,16 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.803509179557099</v>
+        <v>3.937485865101504</v>
       </c>
       <c r="C4">
-        <v>3.368516174398306</v>
+        <v>2.970971338006724</v>
       </c>
       <c r="D4">
-        <v>3.36876345812907</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
+        <v>2.002414913187683</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,16 +462,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.77757207936161</v>
+        <v>3.956225030866538</v>
       </c>
       <c r="C5">
-        <v>2.781710902391906</v>
+        <v>3.719393301447257</v>
       </c>
       <c r="D5">
-        <v>3.604125990792053</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
+        <v>1.771037627093967</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,15 +479,15 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.77703867825018</v>
+        <v>4.138555655688652</v>
       </c>
       <c r="C6">
-        <v>2.80466762236387</v>
+        <v>2.706705723712525</v>
       </c>
       <c r="D6">
-        <v>3.611197160806439</v>
-      </c>
-      <c r="E6" t="s">
+        <v>2.431700481094391</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
     </row>
@@ -496,16 +496,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.302838627874772</v>
+        <v>4.480304647843286</v>
       </c>
       <c r="C7">
-        <v>2.581457671538919</v>
+        <v>3.08079157358909</v>
       </c>
       <c r="D7">
-        <v>2.544536116731144</v>
+        <v>3.292159185202518</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -513,16 +513,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.389173253142392</v>
+        <v>3.73223393789655</v>
       </c>
       <c r="C8">
-        <v>3.696795202036481</v>
+        <v>3.436310218255766</v>
       </c>
       <c r="D8">
-        <v>1.827236989097217</v>
+        <v>1.749667521140688</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -530,16 +530,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.095289389805821</v>
+        <v>3.501802033224878</v>
       </c>
       <c r="C9">
-        <v>2.03709665281315</v>
+        <v>3.058477614488558</v>
       </c>
       <c r="D9">
-        <v>3.31452146521891</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
+        <v>1.617438759456135</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -547,16 +547,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.309782362073392</v>
+        <v>3.068753825485835</v>
       </c>
       <c r="C10">
-        <v>2.790560378099812</v>
+        <v>1.643617902613882</v>
       </c>
       <c r="D10">
-        <v>2.464207644993939</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
+        <v>2.888132547257557</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -564,16 +564,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.335217758048771</v>
+        <v>3.885983712772394</v>
       </c>
       <c r="C11">
-        <v>3.595893062630473</v>
+        <v>2.736857623793872</v>
       </c>
       <c r="D11">
-        <v>1.413269112194615</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
+        <v>1.997971044734769</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -581,16 +581,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.251609911679846</v>
+        <v>3.602208710524627</v>
       </c>
       <c r="C12">
-        <v>3.430865527431595</v>
+        <v>3.272584301172432</v>
       </c>
       <c r="D12">
-        <v>1.444988380606374</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
+        <v>1.799292190358127</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -598,16 +598,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.420727705483801</v>
+        <v>4.257427321992251</v>
       </c>
       <c r="C13">
-        <v>2.139844570355991</v>
+        <v>3.195322030715348</v>
       </c>
       <c r="D13">
-        <v>2.881131149334721</v>
+        <v>2.023076026676622</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -615,16 +615,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.180560032238856</v>
+        <v>3.848448136326554</v>
       </c>
       <c r="C14">
-        <v>3.025490699045914</v>
+        <v>3.573113853366175</v>
       </c>
       <c r="D14">
-        <v>2.166818855500045</v>
+        <v>1.489180320688445</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -632,16 +632,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.26530098513074</v>
+        <v>4.555670949822136</v>
       </c>
       <c r="C15">
-        <v>3.475929585028686</v>
+        <v>2.900993062471307</v>
       </c>
       <c r="D15">
-        <v>1.863640470178476</v>
+        <v>3.446945010818411</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,16 +649,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.097452398949754</v>
+        <v>3.524182562261865</v>
       </c>
       <c r="C16">
-        <v>3.034871449541873</v>
+        <v>3.116061786105801</v>
       </c>
       <c r="D16">
-        <v>0.5489108662623673</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
+        <v>1.740425404116366</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,16 +666,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.269048527117365</v>
+        <v>4.061313388388736</v>
       </c>
       <c r="C17">
-        <v>2.520859401516199</v>
+        <v>1.976247095215574</v>
       </c>
       <c r="D17">
-        <v>2.510119120333133</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
+        <v>2.508293178673987</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,16 +683,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.074463190174848</v>
+        <v>4.557208763664383</v>
       </c>
       <c r="C18">
-        <v>2.156227550624944</v>
+        <v>2.900981990982846</v>
       </c>
       <c r="D18">
-        <v>2.711439387400116</v>
+        <v>3.444863856723973</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.664825399172174</v>
+        <v>3.840176562098733</v>
       </c>
       <c r="C19">
-        <v>3.281555696894184</v>
+        <v>2.11204579791404</v>
       </c>
       <c r="D19">
-        <v>1.719722606835171</v>
+        <v>2.086765886740224</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -717,16 +717,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.017697102639618</v>
+        <v>3.570151641717461</v>
       </c>
       <c r="C20">
-        <v>2.768753874427679</v>
+        <v>3.203569628453701</v>
       </c>
       <c r="D20">
-        <v>2.693778360409672</v>
+        <v>1.780063530425192</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,16 +734,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.087054499516683</v>
+        <v>3.882861591912269</v>
       </c>
       <c r="C21">
-        <v>3.068978820783908</v>
+        <v>2.484054777490303</v>
       </c>
       <c r="D21">
-        <v>1.948114443259796</v>
+        <v>2.048632262080462</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -751,16 +751,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.664487130247473</v>
+        <v>3.623153236609265</v>
       </c>
       <c r="C22">
-        <v>2.579401021752665</v>
+        <v>2.355701257339691</v>
       </c>
       <c r="D22">
-        <v>3.486873497452205</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
+        <v>2.195078207910974</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -768,16 +768,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.992008686085058</v>
+        <v>4.224425593580271</v>
       </c>
       <c r="C23">
-        <v>2.767051018720231</v>
+        <v>3.019020215260884</v>
       </c>
       <c r="D23">
-        <v>2.05225325280822</v>
+        <v>1.949475476491034</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -785,13 +785,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.778588847056761</v>
+        <v>2.607673027488892</v>
       </c>
       <c r="C24">
-        <v>2.783516217371907</v>
+        <v>1.603175981154685</v>
       </c>
       <c r="D24">
-        <v>3.605183296300364</v>
+        <v>3.108824738024782</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -802,16 +802,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.187168199261411</v>
+        <v>3.931145214075781</v>
       </c>
       <c r="C25">
-        <v>2.421417968539186</v>
+        <v>3.017433183870627</v>
       </c>
       <c r="D25">
-        <v>3.180580816387108</v>
+        <v>2.611067928565244</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -819,16 +819,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3.815175972274951</v>
+        <v>4.173462445244278</v>
       </c>
       <c r="C26">
-        <v>1.06053087084668</v>
+        <v>3.439499369423281</v>
       </c>
       <c r="D26">
-        <v>2.827551976449245</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
+        <v>2.921190033657453</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -836,16 +836,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.075903027340261</v>
+        <v>4.682898732993117</v>
       </c>
       <c r="C27">
-        <v>2.928793265801089</v>
+        <v>3.757137759967843</v>
       </c>
       <c r="D27">
-        <v>2.523495775788114</v>
-      </c>
-      <c r="E27">
-        <v>13</v>
+        <v>3.265635550725886</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -853,16 +853,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4.188025286000667</v>
+        <v>3.793615015634932</v>
       </c>
       <c r="C28">
-        <v>3.33850069186851</v>
+        <v>3.551502230951924</v>
       </c>
       <c r="D28">
-        <v>2.000565812041899</v>
+        <v>2.029708099599624</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -870,16 +870,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4.230184648472134</v>
+        <v>3.914602142120455</v>
       </c>
       <c r="C29">
-        <v>3.441953065350822</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>2.036886826181605</v>
-      </c>
-      <c r="E29">
-        <v>15</v>
+        <v>3.523177682781049</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -887,16 +887,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.225541270320769</v>
+        <v>3.326394089912434</v>
       </c>
       <c r="C30">
-        <v>2.216351337453437</v>
+        <v>2.613791123058353</v>
       </c>
       <c r="D30">
-        <v>2.557014033593193</v>
+        <v>1.49744384013165</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -904,16 +904,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4.510030227651334</v>
+        <v>3.910085589476202</v>
       </c>
       <c r="C31">
-        <v>3.299915182183302</v>
+        <v>3.701386892814366</v>
       </c>
       <c r="D31">
-        <v>2.865794011462465</v>
+        <v>2.131691109042335</v>
       </c>
       <c r="E31">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -921,13 +921,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.053069223608428</v>
+        <v>3.644453635969264</v>
       </c>
       <c r="C32">
-        <v>2.863388689354804</v>
+        <v>2.104967761990892</v>
       </c>
       <c r="D32">
-        <v>1.240640336564752</v>
+        <v>3.285258407275201</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -938,16 +938,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.382184701063255</v>
+        <v>3.420476463819009</v>
       </c>
       <c r="C33">
-        <v>1.618354487643432</v>
+        <v>2.906235590935693</v>
       </c>
       <c r="D33">
-        <v>2.92984569770032</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
+        <v>3.020861176389478</v>
+      </c>
+      <c r="E33">
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -955,16 +955,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.100053560717096</v>
+        <v>3.894096804345407</v>
       </c>
       <c r="C34">
-        <v>3.175282580758198</v>
+        <v>1.322514316961087</v>
       </c>
       <c r="D34">
-        <v>2.050302159473465</v>
-      </c>
-      <c r="E34">
-        <v>18</v>
+        <v>3.274220766900229</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -972,16 +972,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.475408632225822</v>
+        <v>4.129430922723547</v>
       </c>
       <c r="C35">
-        <v>3.176394482532507</v>
+        <v>3.327388968415999</v>
       </c>
       <c r="D35">
-        <v>2.912560131671706</v>
+        <v>2.935882151454637</v>
       </c>
       <c r="E35">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -989,16 +989,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.215882891097578</v>
+        <v>3.875892106009737</v>
       </c>
       <c r="C36">
-        <v>1.70692657094577</v>
+        <v>2.787513998036902</v>
       </c>
       <c r="D36">
-        <v>2.657522141195256</v>
-      </c>
-      <c r="E36" t="s">
-        <v>4</v>
+        <v>2.629669429339363</v>
+      </c>
+      <c r="E36">
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1006,16 +1006,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.95879613351932</v>
+        <v>4.442282031919727</v>
       </c>
       <c r="C37">
-        <v>2.470414188139185</v>
+        <v>3.688001900592799</v>
       </c>
       <c r="D37">
-        <v>2.80414580524119</v>
+        <v>2.105724917817791</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1023,16 +1023,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.261489710863797</v>
+        <v>3.676767799494866</v>
       </c>
       <c r="C38">
-        <v>2.21152630391698</v>
+        <v>2.975089834221906</v>
       </c>
       <c r="D38">
-        <v>2.602083960884494</v>
+        <v>1.724307822623849</v>
       </c>
       <c r="E38">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1040,16 +1040,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.45604304197485</v>
+        <v>3.594923396405366</v>
       </c>
       <c r="C39">
-        <v>2.517494065194797</v>
+        <v>3.185273524614717</v>
       </c>
       <c r="D39">
-        <v>2.830767999026963</v>
+        <v>1.379359939215776</v>
       </c>
       <c r="E39">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1057,16 +1057,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.149290808503494</v>
+        <v>3.609528820534623</v>
       </c>
       <c r="C40">
-        <v>3.31214924818961</v>
+        <v>2.762781469556728</v>
       </c>
       <c r="D40">
-        <v>2.041303213444764</v>
+        <v>1.688710039834626</v>
       </c>
       <c r="E40">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1074,16 +1074,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.616626227807904</v>
+        <v>4.095556576570963</v>
       </c>
       <c r="C41">
-        <v>1.284588539847712</v>
+        <v>2.383110383276433</v>
       </c>
       <c r="D41">
-        <v>2.974127004468047</v>
-      </c>
-      <c r="E41" t="s">
-        <v>4</v>
+        <v>2.486200786706859</v>
+      </c>
+      <c r="E41">
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1091,16 +1091,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.133721099565423</v>
+        <v>3.212663796040732</v>
       </c>
       <c r="C42">
-        <v>2.820387213737045</v>
+        <v>2.175204253026092</v>
       </c>
       <c r="D42">
-        <v>2.210849908272527</v>
+        <v>2.942184696236438</v>
       </c>
       <c r="E42">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1108,16 +1108,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.886820632303553</v>
+        <v>4.08699690640804</v>
       </c>
       <c r="C43">
-        <v>1.950565672399104</v>
+        <v>3.210830460618167</v>
       </c>
       <c r="D43">
-        <v>2.818038431821612</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4</v>
+        <v>2.942598899634643</v>
+      </c>
+      <c r="E43">
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1125,16 +1125,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.275186494607937</v>
+        <v>4.370694220445042</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>3.525817153346399</v>
       </c>
       <c r="D44">
-        <v>3.550325870992368</v>
-      </c>
-      <c r="E44" t="s">
-        <v>4</v>
+        <v>2.043125461851174</v>
+      </c>
+      <c r="E44">
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1142,16 +1142,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>4.223097158391786</v>
+        <v>4.568572492030173</v>
       </c>
       <c r="C45">
-        <v>2.249382225941526</v>
+        <v>3.448693780747261</v>
       </c>
       <c r="D45">
-        <v>2.950424773155003</v>
+        <v>3.265190024184022</v>
       </c>
       <c r="E45">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1159,13 +1159,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4.113919886169103</v>
+        <v>2.502109630010353</v>
       </c>
       <c r="C46">
-        <v>3.053842074821536</v>
+        <v>2.222557188088424</v>
       </c>
       <c r="D46">
-        <v>1.295340159444712</v>
+        <v>3.613835220069904</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -1176,16 +1176,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.437601835366413</v>
+        <v>3.582957001465696</v>
       </c>
       <c r="C47">
-        <v>3.041804931527262</v>
+        <v>3.23290658533426</v>
       </c>
       <c r="D47">
-        <v>2.934231287735776</v>
+        <v>1.838667244402469</v>
       </c>
       <c r="E47">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1193,16 +1193,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>4.570983406788168</v>
+        <v>4.007701805906836</v>
       </c>
       <c r="C48">
-        <v>2.839747940310112</v>
+        <v>3.783831488222953</v>
       </c>
       <c r="D48">
-        <v>1.876350015777363</v>
+        <v>1.830324748193598</v>
       </c>
       <c r="E48">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1210,16 +1210,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.906534610847573</v>
+        <v>3.741478883742921</v>
       </c>
       <c r="C49">
-        <v>3.675512749489819</v>
+        <v>3.160410878203763</v>
       </c>
       <c r="D49">
-        <v>3.280722756348173</v>
-      </c>
-      <c r="E49" t="s">
-        <v>4</v>
+        <v>1.790589979687839</v>
+      </c>
+      <c r="E49">
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1227,16 +1227,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.312055005734814</v>
+        <v>3.795227640755467</v>
       </c>
       <c r="C50">
-        <v>2.853671037828174</v>
+        <v>3.532244884802577</v>
       </c>
       <c r="D50">
-        <v>2.870484886459273</v>
+        <v>1.802624646854378</v>
       </c>
       <c r="E50">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1244,16 +1244,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>4.27059513005003</v>
+        <v>3.741946028092881</v>
       </c>
       <c r="C51">
-        <v>2.58750342070386</v>
+        <v>2.533494418545569</v>
       </c>
       <c r="D51">
-        <v>2.902624195970586</v>
+        <v>3.338020801738756</v>
       </c>
       <c r="E51">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1261,16 +1261,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>4.256078966430013</v>
+        <v>3.84360415971351</v>
       </c>
       <c r="C52">
-        <v>1.359712002034697</v>
+        <v>2.489714944176666</v>
       </c>
       <c r="D52">
-        <v>3.398851400415141</v>
-      </c>
-      <c r="E52" t="s">
-        <v>4</v>
+        <v>2.033360452011506</v>
+      </c>
+      <c r="E52">
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1278,16 +1278,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.608890033340563</v>
+        <v>3.499444214150997</v>
       </c>
       <c r="C53">
-        <v>2.209644721335867</v>
+        <v>3.088876990364939</v>
       </c>
       <c r="D53">
-        <v>3.371253155433604</v>
+        <v>3.071708369859464</v>
       </c>
       <c r="E53">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1295,16 +1295,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.080412726009141</v>
+        <v>4.558344020371813</v>
       </c>
       <c r="C54">
-        <v>2.570176401170112</v>
+        <v>2.878382843265364</v>
       </c>
       <c r="D54">
-        <v>2.216320159090275</v>
+        <v>3.435609599968311</v>
       </c>
       <c r="E54">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1312,16 +1312,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.533660227621714</v>
+        <v>3.93483612530055</v>
       </c>
       <c r="C55">
-        <v>2.625465444375162</v>
+        <v>2.793076330856529</v>
       </c>
       <c r="D55">
-        <v>1.992496282958675</v>
+        <v>2.01640524282495</v>
       </c>
       <c r="E55">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1329,16 +1329,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3.925709593337622</v>
+        <v>2.603633047941933</v>
       </c>
       <c r="C56">
-        <v>2.420765963107814</v>
+        <v>0.9572840505101395</v>
       </c>
       <c r="D56">
-        <v>1.997266178011094</v>
-      </c>
-      <c r="E56">
-        <v>33</v>
+        <v>2.409925156012927</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1346,16 +1346,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.351533278118497</v>
+        <v>4.418834813815701</v>
       </c>
       <c r="C57">
-        <v>3.62956940441128</v>
+        <v>2.7072890124631</v>
       </c>
       <c r="D57">
-        <v>1.806575947360419</v>
+        <v>3.328036493235203</v>
       </c>
       <c r="E57">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1363,16 +1363,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3.582574422079982</v>
+        <v>3.435773354589082</v>
       </c>
       <c r="C58">
-        <v>0.08025709828714486</v>
+        <v>2.908172493482298</v>
       </c>
       <c r="D58">
-        <v>2.493385131647189</v>
-      </c>
-      <c r="E58" t="s">
-        <v>4</v>
+        <v>1.641818380244835</v>
+      </c>
+      <c r="E58">
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1380,16 +1380,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4.721385186280036</v>
+        <v>3.823947469748918</v>
       </c>
       <c r="C59">
-        <v>2.990110293877537</v>
+        <v>2.514623954622306</v>
       </c>
       <c r="D59">
-        <v>3.437135554059978</v>
-      </c>
-      <c r="E59" t="s">
-        <v>4</v>
+        <v>2.614314106021254</v>
+      </c>
+      <c r="E59">
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1397,16 +1397,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3.1022655616873</v>
+        <v>3.718447897744943</v>
       </c>
       <c r="C60">
-        <v>3.391287046444794</v>
+        <v>2.949267002007678</v>
       </c>
       <c r="D60">
-        <v>3.850099511376865</v>
-      </c>
-      <c r="E60" t="s">
-        <v>4</v>
+        <v>2.820542484171606</v>
+      </c>
+      <c r="E60">
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1414,16 +1414,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>4.117684631589351</v>
+        <v>3.601822053804392</v>
       </c>
       <c r="C61">
-        <v>3.604286984498689</v>
+        <v>3.578947299291825</v>
       </c>
       <c r="D61">
-        <v>2.219318331206442</v>
+        <v>2.771085573888732</v>
       </c>
       <c r="E61">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1431,16 +1431,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.129570876324965</v>
+        <v>3.688098479052202</v>
       </c>
       <c r="C62">
-        <v>3.558468698594361</v>
+        <v>2.57565580396082</v>
       </c>
       <c r="D62">
-        <v>2.254624091104626</v>
+        <v>3.340718726392506</v>
       </c>
       <c r="E62">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1448,16 +1448,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.055755118258095</v>
+        <v>3.708840896079351</v>
       </c>
       <c r="C63">
-        <v>3.155801387961521</v>
+        <v>3.527850663949034</v>
       </c>
       <c r="D63">
-        <v>2.531452802306043</v>
+        <v>2.537007359246924</v>
       </c>
       <c r="E63">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1465,16 +1465,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.980716463168677</v>
+        <v>3.752283770319163</v>
       </c>
       <c r="C64">
-        <v>3.798914252457404</v>
+        <v>3.67319803689854</v>
       </c>
       <c r="D64">
-        <v>2.592359688693684</v>
+        <v>2.901700656496225</v>
       </c>
       <c r="E64">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1482,16 +1482,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.846771919009641</v>
+        <v>3.675326278044917</v>
       </c>
       <c r="C65">
-        <v>3.637314548735619</v>
+        <v>2.580017320583508</v>
       </c>
       <c r="D65">
-        <v>2.541663610762023</v>
+        <v>3.413207136909997</v>
       </c>
       <c r="E65">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1499,16 +1499,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.047447559252912</v>
+        <v>4.045324692980479</v>
       </c>
       <c r="C66">
-        <v>3.615156410547962</v>
+        <v>2.515839514922833</v>
       </c>
       <c r="D66">
-        <v>2.49755368954418</v>
+        <v>2.593434035833807</v>
       </c>
       <c r="E66">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1516,16 +1516,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3.932133128018195</v>
+        <v>4.084471749547809</v>
       </c>
       <c r="C67">
-        <v>3.974307169086199</v>
+        <v>3.360081885358225</v>
       </c>
       <c r="D67">
-        <v>2.62773255445431</v>
+        <v>2.913830460475185</v>
       </c>
       <c r="E67">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1533,16 +1533,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.720565799596707</v>
+        <v>4.031003968671417</v>
       </c>
       <c r="C68">
-        <v>3.067500240624899</v>
+        <v>3.474251541776044</v>
       </c>
       <c r="D68">
-        <v>2.689130973838981</v>
+        <v>3.036789923467324</v>
       </c>
       <c r="E68">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1550,16 +1550,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>4.107506394835334</v>
+        <v>3.731812937687082</v>
       </c>
       <c r="C69">
-        <v>3.532492894553044</v>
+        <v>2.676696546604966</v>
       </c>
       <c r="D69">
-        <v>2.493193968835963</v>
+        <v>2.348408852505613</v>
       </c>
       <c r="E69">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1567,16 +1567,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3.492593415062316</v>
+        <v>3.572187289236944</v>
       </c>
       <c r="C70">
-        <v>0.4253821473488391</v>
+        <v>3.018891305630277</v>
       </c>
       <c r="D70">
-        <v>2.906000497020132</v>
-      </c>
-      <c r="E70" t="s">
-        <v>4</v>
+        <v>2.975294209289288</v>
+      </c>
+      <c r="E70">
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1584,16 +1584,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.566016757465442</v>
+        <v>3.834241331373003</v>
       </c>
       <c r="C71">
-        <v>3.005498089460062</v>
+        <v>4.026802350475574</v>
       </c>
       <c r="D71">
-        <v>3.101468361888468</v>
+        <v>2.596320581203678</v>
       </c>
       <c r="E71">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1601,16 +1601,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3.928486751948359</v>
+        <v>3.553821569017723</v>
       </c>
       <c r="C72">
-        <v>3.5139305126798</v>
+        <v>3.864199913146447</v>
       </c>
       <c r="D72">
-        <v>2.735314111042964</v>
+        <v>2.110713364481748</v>
       </c>
       <c r="E72">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1618,16 +1618,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3.756539599315201</v>
+        <v>3.675080479997253</v>
       </c>
       <c r="C73">
-        <v>3.470579492522353</v>
+        <v>3.133928335866252</v>
       </c>
       <c r="D73">
-        <v>3.031072356360522</v>
+        <v>3.403940677765732</v>
       </c>
       <c r="E73">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1635,16 +1635,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.042141074941181</v>
+        <v>3.592872905618148</v>
       </c>
       <c r="C74">
-        <v>3.799741478545402</v>
+        <v>3.66536540325286</v>
       </c>
       <c r="D74">
-        <v>1.979048147808886</v>
+        <v>1.744381198698523</v>
       </c>
       <c r="E74">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1652,16 +1652,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3.84876373090316</v>
+        <v>3.645487122773968</v>
       </c>
       <c r="C75">
-        <v>3.451209197109377</v>
+        <v>2.124303446793204</v>
       </c>
       <c r="D75">
-        <v>2.754169186911177</v>
+        <v>2.325165530115556</v>
       </c>
       <c r="E75">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1669,16 +1669,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3.984104012967056</v>
+        <v>3.264358044086002</v>
       </c>
       <c r="C76">
-        <v>3.35827231164907</v>
+        <v>3.342870107035897</v>
       </c>
       <c r="D76">
-        <v>2.222949459008167</v>
+        <v>3.24032870310618</v>
       </c>
       <c r="E76">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1686,16 +1686,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3.837968879228066</v>
+        <v>3.174924053705626</v>
       </c>
       <c r="C77">
-        <v>3.091350260205571</v>
+        <v>3.802062270133158</v>
       </c>
       <c r="D77">
-        <v>3.084933620936249</v>
+        <v>3.348230622822742</v>
       </c>
       <c r="E77">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1703,16 +1703,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.996800179435958</v>
+        <v>3.411397143247258</v>
       </c>
       <c r="C78">
-        <v>3.307809453490585</v>
+        <v>3.138541229008269</v>
       </c>
       <c r="D78">
-        <v>2.501217311705008</v>
+        <v>3.133676109197032</v>
       </c>
       <c r="E78">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1720,16 +1720,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.97988579250672</v>
+        <v>3.626672024298684</v>
       </c>
       <c r="C79">
-        <v>3.377183571804789</v>
+        <v>3.329009120906482</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79" t="s">
-        <v>4</v>
+        <v>2.349009258793378</v>
+      </c>
+      <c r="E79">
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1737,16 +1737,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.044761614562523</v>
+        <v>3.419199995871526</v>
       </c>
       <c r="C80">
-        <v>3.514943757081524</v>
+        <v>2.992838724788583</v>
       </c>
       <c r="D80">
-        <v>2.101759643222009</v>
+        <v>2.99401631055009</v>
       </c>
       <c r="E80">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1754,16 +1754,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.061407179218338</v>
+        <v>3.32759873310528</v>
       </c>
       <c r="C81">
-        <v>3.567495964555593</v>
+        <v>2.931796303427114</v>
       </c>
       <c r="D81">
-        <v>2.645960283550378</v>
+        <v>3.054578648670637</v>
       </c>
       <c r="E81">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1771,16 +1771,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4.006690385048232</v>
+        <v>3.455767025737261</v>
       </c>
       <c r="C82">
-        <v>3.389163239202905</v>
+        <v>2.86818798134516</v>
       </c>
       <c r="D82">
-        <v>2.616544715054121</v>
+        <v>2.942703964136905</v>
       </c>
       <c r="E82">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1788,16 +1788,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3.988387693715443</v>
+        <v>3.493784132167236</v>
       </c>
       <c r="C83">
-        <v>3.171687911317898</v>
+        <v>2.974269845539263</v>
       </c>
       <c r="D83">
-        <v>2.577063135755076</v>
+        <v>1.530292340138786</v>
       </c>
       <c r="E83">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1805,16 +1805,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.013969544467885</v>
+        <v>3.418989920199251</v>
       </c>
       <c r="C84">
-        <v>3.618862074300445</v>
+        <v>3.211470942299236</v>
       </c>
       <c r="D84">
-        <v>2.810023130497792</v>
+        <v>3.156996642105176</v>
       </c>
       <c r="E84">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1822,16 +1822,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4.017511043462854</v>
+        <v>3.370275499738037</v>
       </c>
       <c r="C85">
-        <v>3.649343470366536</v>
+        <v>3.527859262085401</v>
       </c>
       <c r="D85">
-        <v>2.971487388976503</v>
+        <v>3.29835576280248</v>
       </c>
       <c r="E85">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1839,16 +1839,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4.554646369318449</v>
+        <v>3.452058213241487</v>
       </c>
       <c r="C86">
-        <v>3.054637613558837</v>
+        <v>2.794755480781248</v>
       </c>
       <c r="D86">
-        <v>2.235701530067793</v>
+        <v>2.976025688882641</v>
       </c>
       <c r="E86">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1856,16 +1856,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4.237902717865947</v>
+        <v>3.307028556163355</v>
       </c>
       <c r="C87">
-        <v>3.604803488352199</v>
+        <v>2.979333363050941</v>
       </c>
       <c r="D87">
-        <v>1.332146639123256</v>
-      </c>
-      <c r="E87" t="s">
-        <v>4</v>
+        <v>3.01957918445821</v>
+      </c>
+      <c r="E87">
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1873,16 +1873,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4.273117001855717</v>
+        <v>3.163575486130388</v>
       </c>
       <c r="C88">
-        <v>2.536888957223822</v>
+        <v>3.555233273820448</v>
       </c>
       <c r="D88">
-        <v>2.431910921269264</v>
+        <v>1.926664479692489</v>
       </c>
       <c r="E88">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1890,16 +1890,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4.349633532539166</v>
+        <v>3.559400498766223</v>
       </c>
       <c r="C89">
-        <v>3.631444061350954</v>
+        <v>3.535245094484738</v>
       </c>
       <c r="D89">
-        <v>1.890054336793121</v>
+        <v>2.249197737269558</v>
       </c>
       <c r="E89">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1907,16 +1907,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.229969597942692</v>
+        <v>3.423883474906106</v>
       </c>
       <c r="C90">
-        <v>2.972248815112083</v>
+        <v>3.476598868530176</v>
       </c>
       <c r="D90">
-        <v>2.751030090083813</v>
+        <v>1.002434602706826</v>
       </c>
       <c r="E90">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1924,16 +1924,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4.404067586047312</v>
+        <v>3.410705343503517</v>
       </c>
       <c r="C91">
-        <v>3.373544048378569</v>
+        <v>3.662254041942694</v>
       </c>
       <c r="D91">
-        <v>3.175333589955791</v>
+        <v>2.079626327745468</v>
       </c>
       <c r="E91">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1941,16 +1941,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4.461226128954019</v>
+        <v>3.627511129535485</v>
       </c>
       <c r="C92">
-        <v>3.32312678689547</v>
+        <v>3.365107927215454</v>
       </c>
       <c r="D92">
-        <v>3.044256691548826</v>
+        <v>1.981554616887319</v>
       </c>
       <c r="E92">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1958,16 +1958,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4.183348233349226</v>
+        <v>3.484998663100126</v>
       </c>
       <c r="C93">
-        <v>3.09174894435737</v>
+        <v>3.563011309260097</v>
       </c>
       <c r="D93">
-        <v>2.846799611479442</v>
+        <v>2.026384686969259</v>
       </c>
       <c r="E93">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1975,16 +1975,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4.185875409364277</v>
+        <v>3.741212983985197</v>
       </c>
       <c r="C94">
-        <v>3.27243396657117</v>
+        <v>3.109454380223099</v>
       </c>
       <c r="D94">
-        <v>3.081549853852566</v>
+        <v>3.336546707080684</v>
       </c>
       <c r="E94">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1992,16 +1992,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>4.138224850870564</v>
+        <v>3.25045263096784</v>
       </c>
       <c r="C95">
-        <v>4.099642816230059</v>
+        <v>3.472600996960356</v>
       </c>
       <c r="D95">
-        <v>2.25242286177453</v>
+        <v>2.270304522616396</v>
       </c>
       <c r="E95">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2009,16 +2009,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>4.253720835356276</v>
+        <v>3.651689675687978</v>
       </c>
       <c r="C96">
-        <v>2.871139897729374</v>
+        <v>3.010735310967628</v>
       </c>
       <c r="D96">
-        <v>3.051614165661831</v>
+        <v>1.172477896335581</v>
       </c>
       <c r="E96">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2026,16 +2026,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>4.320483077742518</v>
+        <v>3.389553741242091</v>
       </c>
       <c r="C97">
-        <v>3.276812873872726</v>
+        <v>3.370108919786861</v>
       </c>
       <c r="D97">
-        <v>2.033970153849848</v>
+        <v>3.140764183511922</v>
       </c>
       <c r="E97">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2043,16 +2043,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>4.20006594696081</v>
+        <v>3.467841990644054</v>
       </c>
       <c r="C98">
-        <v>3.117498024903525</v>
+        <v>3.603711868006603</v>
       </c>
       <c r="D98">
-        <v>2.969884614928426</v>
+        <v>2.291235589558807</v>
       </c>
       <c r="E98">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2060,16 +2060,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>4.034372560839727</v>
+        <v>3.525251485832693</v>
       </c>
       <c r="C99">
-        <v>2.991660067960845</v>
+        <v>3.195959874764803</v>
       </c>
       <c r="D99">
-        <v>1.314232579293407</v>
-      </c>
-      <c r="E99" t="s">
-        <v>4</v>
+        <v>2.982626704929629</v>
+      </c>
+      <c r="E99">
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2077,16 +2077,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>4.157477608190348</v>
+        <v>3.706368651880994</v>
       </c>
       <c r="C100">
-        <v>3.50820634268814</v>
+        <v>3.094930507648211</v>
       </c>
       <c r="D100">
-        <v>1.612253202544975</v>
+        <v>3.217649388688321</v>
       </c>
       <c r="E100">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2094,16 +2094,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>3.911208792140686</v>
+        <v>3.711842388006429</v>
       </c>
       <c r="C101">
-        <v>3.463149466074986</v>
+        <v>3.315325871691484</v>
       </c>
       <c r="D101">
-        <v>2.621901101699172</v>
+        <v>3.186632046190701</v>
       </c>
       <c r="E101">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2111,16 +2111,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>4.127875916881491</v>
+        <v>3.857687866867175</v>
       </c>
       <c r="C102">
-        <v>3.651954392202875</v>
+        <v>3.06332847010499</v>
       </c>
       <c r="D102">
-        <v>2.652731013752344</v>
+        <v>2.709701905144337</v>
       </c>
       <c r="E102">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2128,16 +2128,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>4.124724825497676</v>
+        <v>3.710083628239237</v>
       </c>
       <c r="C103">
-        <v>3.667267587307665</v>
+        <v>3.226935453071484</v>
       </c>
       <c r="D103">
-        <v>2.647313177500899</v>
+        <v>3.150211151944053</v>
       </c>
       <c r="E103">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2145,16 +2145,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>4.13569388776679</v>
+        <v>4.288929175206124</v>
       </c>
       <c r="C104">
-        <v>3.676556619533883</v>
+        <v>3.546142164337797</v>
       </c>
       <c r="D104">
-        <v>2.494188709152295</v>
+        <v>3.360511108922895</v>
       </c>
       <c r="E104">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2162,16 +2162,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>4.147605078647175</v>
+        <v>4.451559479848304</v>
       </c>
       <c r="C105">
-        <v>3.526334973187336</v>
+        <v>3.380444177909855</v>
       </c>
       <c r="D105">
-        <v>2.573022798027639</v>
+        <v>3.223806039301021</v>
       </c>
       <c r="E105">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2179,16 +2179,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>4.075165343481176</v>
+        <v>3.560510536089073</v>
       </c>
       <c r="C106">
-        <v>3.285122212647208</v>
+        <v>3.435087597535094</v>
       </c>
       <c r="D106">
-        <v>3.357825594018108</v>
+        <v>1.888010673119831</v>
       </c>
       <c r="E106">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2196,16 +2196,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>4.059252715694901</v>
+        <v>3.1348714107911</v>
       </c>
       <c r="C107">
-        <v>3.394933445101838</v>
+        <v>3.667483154830486</v>
       </c>
       <c r="D107">
-        <v>3.16907033090105</v>
+        <v>3.073098647738784</v>
       </c>
       <c r="E107">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2213,16 +2213,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>4.077767436632491</v>
+        <v>3.22475556663861</v>
       </c>
       <c r="C108">
-        <v>3.776369179192755</v>
+        <v>3.594571073054076</v>
       </c>
       <c r="D108">
-        <v>2.424718680277408</v>
+        <v>3.045543468255968</v>
       </c>
       <c r="E108">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2230,16 +2230,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>3.919194917519467</v>
+        <v>3.195792830597666</v>
       </c>
       <c r="C109">
-        <v>3.494863089679207</v>
+        <v>2.60061696795886</v>
       </c>
       <c r="D109">
-        <v>2.164803544282542</v>
+        <v>1.77917592963249</v>
       </c>
       <c r="E109">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2247,16 +2247,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>4.069297753914483</v>
+        <v>3.117629189786561</v>
       </c>
       <c r="C110">
-        <v>2.904059754828987</v>
+        <v>3.940598692409059</v>
       </c>
       <c r="D110">
-        <v>3.445448559796002</v>
+        <v>2.876449056431579</v>
       </c>
       <c r="E110">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2264,16 +2264,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>4.17143451477846</v>
+        <v>3.339975549696673</v>
       </c>
       <c r="C111">
-        <v>3.228939229395056</v>
+        <v>3.930027200579865</v>
       </c>
       <c r="D111">
-        <v>3.32992531048275</v>
+        <v>2.666602178761846</v>
       </c>
       <c r="E111">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2281,16 +2281,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>4.117077094072998</v>
+        <v>3.118373762931999</v>
       </c>
       <c r="C112">
-        <v>3.173140666458753</v>
+        <v>2.46259660525799</v>
       </c>
       <c r="D112">
-        <v>3.52202623140741</v>
+        <v>1.577842682445021</v>
       </c>
       <c r="E112">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2298,16 +2298,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>4.187893260802083</v>
+        <v>3.485116379841962</v>
       </c>
       <c r="C113">
-        <v>3.282458925731899</v>
+        <v>3.452069364965942</v>
       </c>
       <c r="D113">
-        <v>2.309309858343628</v>
+        <v>2.360156728379362</v>
       </c>
       <c r="E113">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2315,16 +2315,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>3.920091218474531</v>
+        <v>3.288508827441467</v>
       </c>
       <c r="C114">
-        <v>3.224063865249459</v>
+        <v>3.48766069740246</v>
       </c>
       <c r="D114">
-        <v>3.216218324521408</v>
+        <v>3.311322959827077</v>
       </c>
       <c r="E114">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2332,16 +2332,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>3.10780189655466</v>
       </c>
       <c r="C115">
-        <v>3.97166161908273</v>
+        <v>3.65397874181285</v>
       </c>
       <c r="D115">
-        <v>2.969046011659995</v>
-      </c>
-      <c r="E115" t="s">
-        <v>4</v>
+        <v>3.632310377241507</v>
+      </c>
+      <c r="E115">
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2349,16 +2349,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>4.209585465293618</v>
+        <v>3.552200567366928</v>
       </c>
       <c r="C116">
-        <v>3.676599891435032</v>
+        <v>3.85534262283657</v>
       </c>
       <c r="D116">
-        <v>3.310881123061203</v>
+        <v>2.537896326898256</v>
       </c>
       <c r="E116">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2366,16 +2366,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>4.351138877516079</v>
+        <v>4.560550873436967</v>
       </c>
       <c r="C117">
-        <v>4.061668998494593</v>
+        <v>3.372085980594252</v>
       </c>
       <c r="D117">
-        <v>3.07960728536283</v>
+        <v>3.514058151641342</v>
       </c>
       <c r="E117">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2383,16 +2383,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>4.328046795802361</v>
+        <v>4.495724138203683</v>
       </c>
       <c r="C118">
-        <v>3.631726621678258</v>
+        <v>3.431881947767895</v>
       </c>
       <c r="D118">
-        <v>3.612058166183004</v>
+        <v>3.424007214472161</v>
       </c>
       <c r="E118">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2400,16 +2400,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>4.176758924457107</v>
+        <v>4.576010743592181</v>
       </c>
       <c r="C119">
-        <v>3.714522233318978</v>
+        <v>3.133215624845215</v>
       </c>
       <c r="D119">
-        <v>2.770856103627199</v>
-      </c>
-      <c r="E119">
-        <v>88</v>
+        <v>3.520199615837864</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2417,16 +2417,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>4.176563303059527</v>
+        <v>3.794188586856335</v>
       </c>
       <c r="C120">
-        <v>3.302004107210867</v>
+        <v>3.123129041641007</v>
       </c>
       <c r="D120">
-        <v>3.335044560656279</v>
+        <v>1.943849005873529</v>
       </c>
       <c r="E120">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2434,16 +2434,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>4.091300137563516</v>
+        <v>3.881296959534706</v>
       </c>
       <c r="C121">
-        <v>3.707955851022567</v>
+        <v>3.85053502478222</v>
       </c>
       <c r="D121">
-        <v>2.657451335903519</v>
+        <v>1.622072677795073</v>
       </c>
       <c r="E121">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2451,16 +2451,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>4.313862561455228</v>
+        <v>3.328533863151716</v>
       </c>
       <c r="C122">
-        <v>3.493101506014416</v>
+        <v>3.44996948160569</v>
       </c>
       <c r="D122">
-        <v>3.352283782137512</v>
+        <v>3.344701921135833</v>
       </c>
       <c r="E122">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2468,16 +2468,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>4.16879510626305</v>
+        <v>2.553895510952297</v>
       </c>
       <c r="C123">
-        <v>4.028199724214828</v>
+        <v>3.599824076766066</v>
       </c>
       <c r="D123">
-        <v>2.934979801745793</v>
-      </c>
-      <c r="E123">
-        <v>92</v>
+        <v>3.568752065727325</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2485,16 +2485,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>4.215746377148125</v>
+        <v>3.268061034946184</v>
       </c>
       <c r="C124">
-        <v>3.134597263000726</v>
+        <v>3.25630825385031</v>
       </c>
       <c r="D124">
-        <v>1.797260152515729</v>
+        <v>2.155363607914131</v>
       </c>
       <c r="E124">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2502,16 +2502,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>4.127955745672986</v>
+        <v>2.919194169064046</v>
       </c>
       <c r="C125">
-        <v>3.474098929348721</v>
+        <v>3.57046434159599</v>
       </c>
       <c r="D125">
-        <v>3.354730932690654</v>
+        <v>2.120840078539476</v>
       </c>
       <c r="E125">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2519,16 +2519,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>4.06824014252707</v>
+        <v>2.852650072194628</v>
       </c>
       <c r="C126">
-        <v>3.355967241712844</v>
+        <v>3.693687808419992</v>
       </c>
       <c r="D126">
-        <v>3.469957002932671</v>
+        <v>3.153260296312146</v>
       </c>
       <c r="E126">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2536,13 +2536,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>4.047284124130273</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>2.855862010363754</v>
+        <v>3.502273053141657</v>
       </c>
       <c r="D127">
-        <v>1.484138231411083</v>
+        <v>3.522186887986498</v>
       </c>
       <c r="E127" t="s">
         <v>4</v>
@@ -2553,16 +2553,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>3.986606476425725</v>
+        <v>3.357116243490853</v>
       </c>
       <c r="C128">
-        <v>3.916577722260509</v>
+        <v>3.146273952571935</v>
       </c>
       <c r="D128">
-        <v>2.433750307331504</v>
+        <v>1.852343442749865</v>
       </c>
       <c r="E128">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2570,16 +2570,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>4.222668162772938</v>
+        <v>3.721267025438741</v>
       </c>
       <c r="C129">
-        <v>2.797770642827271</v>
+        <v>3.041375222653602</v>
       </c>
       <c r="D129">
-        <v>2.832852686973801</v>
+        <v>3.284282532986794</v>
       </c>
       <c r="E129">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2587,16 +2587,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>4.268998020741025</v>
+        <v>3.778822737252365</v>
       </c>
       <c r="C130">
-        <v>2.247129835960012</v>
+        <v>3.232184057819873</v>
       </c>
       <c r="D130">
-        <v>2.890648826272446</v>
+        <v>3.028317458033793</v>
       </c>
       <c r="E130">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2604,16 +2604,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>4.117277589227053</v>
+        <v>2.834800553223574</v>
       </c>
       <c r="C131">
-        <v>3.887808077688112</v>
+        <v>3.621970105354524</v>
       </c>
       <c r="D131">
-        <v>2.759846304019742</v>
+        <v>3.164855263099135</v>
       </c>
       <c r="E131">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2621,16 +2621,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>4.169806562768852</v>
+        <v>3.684595104169866</v>
       </c>
       <c r="C132">
-        <v>3.585826786748926</v>
+        <v>3.052294571732231</v>
       </c>
       <c r="D132">
-        <v>2.088817727658625</v>
+        <v>2.576843849613405</v>
       </c>
       <c r="E132">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2638,16 +2638,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>3.952844129755011</v>
+        <v>3.542820079819526</v>
       </c>
       <c r="C133">
-        <v>2.972286935268158</v>
+        <v>2.963977976348686</v>
       </c>
       <c r="D133">
-        <v>2.747419525721865</v>
+        <v>3.117088168052037</v>
       </c>
       <c r="E133">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2655,16 +2655,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>4.259572492888337</v>
+        <v>3.425924000861459</v>
       </c>
       <c r="C134">
-        <v>3.635996198353275</v>
+        <v>3.516426661450596</v>
       </c>
       <c r="D134">
-        <v>2.522479403348717</v>
+        <v>2.128300680075158</v>
       </c>
       <c r="E134">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2672,16 +2672,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>4.148323238482036</v>
+        <v>3.551128102254657</v>
       </c>
       <c r="C135">
-        <v>3.128157852790941</v>
+        <v>3.650212935340381</v>
       </c>
       <c r="D135">
-        <v>2.274542830342361</v>
+        <v>2.036836984796707</v>
       </c>
       <c r="E135">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2689,16 +2689,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>4.332108723564629</v>
+        <v>3.735232883472412</v>
       </c>
       <c r="C136">
-        <v>3.4248014118399</v>
+        <v>3.330643713504292</v>
       </c>
       <c r="D136">
-        <v>3.265410078828366</v>
+        <v>3.222054182137188</v>
       </c>
       <c r="E136">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2706,16 +2706,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>4.161931426878233</v>
+        <v>3.562612852681538</v>
       </c>
       <c r="C137">
-        <v>4.003699761545261</v>
+        <v>3.847683015517473</v>
       </c>
       <c r="D137">
-        <v>2.668568315265609</v>
+        <v>2.149100039526262</v>
       </c>
       <c r="E137">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2723,16 +2723,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>4.332966053428488</v>
+        <v>3.616414237907739</v>
       </c>
       <c r="C138">
-        <v>3.336522199071229</v>
+        <v>3.018694924423535</v>
       </c>
       <c r="D138">
-        <v>3.18833965518179</v>
+        <v>1.639853816022675</v>
       </c>
       <c r="E138">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2740,16 +2740,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>4.020181762885183</v>
+        <v>3.576680966924194</v>
       </c>
       <c r="C139">
-        <v>3.453873830794996</v>
+        <v>3.29506662578776</v>
       </c>
       <c r="D139">
-        <v>2.790670211668157</v>
+        <v>3.369377637775538</v>
       </c>
       <c r="E139">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2757,16 +2757,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>4.299350388596494</v>
+        <v>3.653223571336437</v>
       </c>
       <c r="C140">
-        <v>3.590442915210397</v>
+        <v>3.598768779831062</v>
       </c>
       <c r="D140">
-        <v>3.26088901029617</v>
+        <v>2.242244732769132</v>
       </c>
       <c r="E140">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2774,16 +2774,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>2.76302880599138</v>
+        <v>3.637596268606386</v>
       </c>
       <c r="C141">
-        <v>3.466390421764557</v>
+        <v>2.946854681497541</v>
       </c>
       <c r="D141">
-        <v>3.294716848264629</v>
-      </c>
-      <c r="E141" t="s">
-        <v>4</v>
+        <v>3.419638489335754</v>
+      </c>
+      <c r="E141">
+        <v>126</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2791,16 +2791,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>4.141438510458203</v>
+        <v>3.650395119154734</v>
       </c>
       <c r="C142">
-        <v>3.0519840031405</v>
+        <v>3.64932627496516</v>
       </c>
       <c r="D142">
-        <v>2.449979352114294</v>
+        <v>2.211623091442413</v>
       </c>
       <c r="E142">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2808,16 +2808,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>3.838416946429343</v>
+        <v>3.707585218995644</v>
       </c>
       <c r="C143">
-        <v>3.516993925934376</v>
+        <v>3.467571816221903</v>
       </c>
       <c r="D143">
-        <v>3.500118922004543</v>
+        <v>2.186928901409698</v>
       </c>
       <c r="E143">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2825,16 +2825,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>4.081410336808103</v>
+        <v>3.80751421945656</v>
       </c>
       <c r="C144">
-        <v>3.624875606638178</v>
+        <v>3.859570933028494</v>
       </c>
       <c r="D144">
-        <v>2.036366826248303</v>
+        <v>2.547144278339428</v>
       </c>
       <c r="E144">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2842,16 +2842,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>3.762904265009185</v>
+        <v>3.561958841848487</v>
       </c>
       <c r="C145">
-        <v>3.196087736563522</v>
+        <v>3.48250736040077</v>
       </c>
       <c r="D145">
-        <v>3.046929012896726</v>
+        <v>3.152158052421921</v>
       </c>
       <c r="E145">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2859,16 +2859,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>3.368770692400328</v>
+        <v>3.745707003652849</v>
       </c>
       <c r="C146">
-        <v>3.625832501596733</v>
+        <v>2.914810547230654</v>
       </c>
       <c r="D146">
-        <v>3.458082513098086</v>
-      </c>
-      <c r="E146" t="s">
-        <v>4</v>
+        <v>2.79244399359396</v>
+      </c>
+      <c r="E146">
+        <v>131</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2876,16 +2876,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>3.930701909573723</v>
+        <v>3.650184223195081</v>
       </c>
       <c r="C147">
-        <v>2.881969684909613</v>
+        <v>3.381461513684884</v>
       </c>
       <c r="D147">
-        <v>3.190511038940331</v>
+        <v>2.006199128101275</v>
       </c>
       <c r="E147">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2893,16 +2893,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>3.965400681251389</v>
+        <v>3.762462889172267</v>
       </c>
       <c r="C148">
-        <v>3.117815008180268</v>
+        <v>3.727806418848115</v>
       </c>
       <c r="D148">
-        <v>2.808118781048297</v>
+        <v>1.750034097216712</v>
       </c>
       <c r="E148">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2910,16 +2910,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>4.012461247571444</v>
+        <v>3.637024537278934</v>
       </c>
       <c r="C149">
-        <v>2.391125894099353</v>
+        <v>3.892019968924367</v>
       </c>
       <c r="D149">
-        <v>3.007235075015397</v>
+        <v>1.985141462217806</v>
       </c>
       <c r="E149">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2927,16 +2927,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>4.147765790420087</v>
+        <v>2.956167323615131</v>
       </c>
       <c r="C150">
-        <v>3.590572633137219</v>
+        <v>3.433947376607928</v>
       </c>
       <c r="D150">
-        <v>2.570045559491283</v>
+        <v>3.277046329565314</v>
       </c>
       <c r="E150">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2944,16 +2944,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>3.870984837738733</v>
+        <v>2.611816719794628</v>
       </c>
       <c r="C151">
-        <v>2.838087243247728</v>
+        <v>3.066542270610938</v>
       </c>
       <c r="D151">
-        <v>3.270673907538711</v>
-      </c>
-      <c r="E151">
-        <v>117</v>
+        <v>3.559650093803469</v>
+      </c>
+      <c r="E151" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2961,16 +2961,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>3.671011946887587</v>
+        <v>2.375302591333504</v>
       </c>
       <c r="C152">
-        <v>3.431548479937962</v>
+        <v>3.04367988371559</v>
       </c>
       <c r="D152">
-        <v>3.335739627166369</v>
-      </c>
-      <c r="E152">
-        <v>118</v>
+        <v>3.542126556116543</v>
+      </c>
+      <c r="E152" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2978,16 +2978,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>3.886268745806166</v>
+        <v>1.794738696349301</v>
       </c>
       <c r="C153">
-        <v>2.740627023957995</v>
+        <v>3.724159852420619</v>
       </c>
       <c r="D153">
-        <v>3.016872708703123</v>
-      </c>
-      <c r="E153">
-        <v>119</v>
+        <v>3.518631730333763</v>
+      </c>
+      <c r="E153" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2995,16 +2995,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>3.860815830799592</v>
+        <v>2.189996180516376</v>
       </c>
       <c r="C154">
-        <v>3.119193201141039</v>
+        <v>3.903228848491893</v>
       </c>
       <c r="D154">
-        <v>3.084909092285012</v>
-      </c>
-      <c r="E154">
-        <v>120</v>
+        <v>3.356380638198662</v>
+      </c>
+      <c r="E154" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3012,16 +3012,16 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>3.779352258119793</v>
+        <v>2.527029694433657</v>
       </c>
       <c r="C155">
-        <v>3.518611460232648</v>
+        <v>3.283464297548368</v>
       </c>
       <c r="D155">
-        <v>2.902249387362036</v>
-      </c>
-      <c r="E155">
-        <v>121</v>
+        <v>3.212228422145258</v>
+      </c>
+      <c r="E155" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3029,16 +3029,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>4.108286829889398</v>
+        <v>2.054833475451348</v>
       </c>
       <c r="C156">
-        <v>3.803193431753109</v>
+        <v>3.881370786096237</v>
       </c>
       <c r="D156">
-        <v>2.616536223116776</v>
-      </c>
-      <c r="E156">
-        <v>122</v>
+        <v>3.280131489529605</v>
+      </c>
+      <c r="E156" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3046,16 +3046,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>3.727547346161209</v>
+        <v>2.280778258431348</v>
       </c>
       <c r="C157">
-        <v>3.612041755117923</v>
+        <v>3.840269929046249</v>
       </c>
       <c r="D157">
-        <v>2.961950981514092</v>
-      </c>
-      <c r="E157">
-        <v>123</v>
+        <v>3.453424224226873</v>
+      </c>
+      <c r="E157" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3063,16 +3063,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>4.160961909058278</v>
+        <v>2.550947758632533</v>
       </c>
       <c r="C158">
-        <v>3.738945715687152</v>
+        <v>3.756621195028031</v>
       </c>
       <c r="D158">
-        <v>2.26999330523544</v>
-      </c>
-      <c r="E158">
-        <v>124</v>
+        <v>3.287730761372066</v>
+      </c>
+      <c r="E158" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3080,16 +3080,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>4.193757334494242</v>
+        <v>2.152494942575885</v>
       </c>
       <c r="C159">
-        <v>3.55308666451518</v>
+        <v>3.715200276521303</v>
       </c>
       <c r="D159">
-        <v>1.898373095166634</v>
-      </c>
-      <c r="E159">
-        <v>125</v>
+        <v>3.348317918616843</v>
+      </c>
+      <c r="E159" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3097,16 +3097,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>4.062376880607392</v>
+        <v>3.67820861898732</v>
       </c>
       <c r="C160">
-        <v>3.257062486378426</v>
+        <v>3.129115365625433</v>
       </c>
       <c r="D160">
-        <v>2.171150474068031</v>
+        <v>3.289662253430878</v>
       </c>
       <c r="E160">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3114,16 +3114,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>3.916997511271725</v>
+        <v>4.003579360820521</v>
       </c>
       <c r="C161">
-        <v>2.176995425823075</v>
+        <v>3.865378718346794</v>
       </c>
       <c r="D161">
-        <v>3.058734509311475</v>
+        <v>2.26337993048114</v>
       </c>
       <c r="E161">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3131,16 +3131,16 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>3.112965214034441</v>
+        <v>3.818677334141713</v>
       </c>
       <c r="C162">
-        <v>3.832464754512798</v>
+        <v>3.150825644873546</v>
       </c>
       <c r="D162">
-        <v>3.798748083132291</v>
-      </c>
-      <c r="E162" t="s">
-        <v>4</v>
+        <v>2.090810466117459</v>
+      </c>
+      <c r="E162">
+        <v>138</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3148,16 +3148,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>4.049454581400409</v>
+        <v>3.833906046237147</v>
       </c>
       <c r="C163">
-        <v>3.726371327141526</v>
+        <v>2.766692174476872</v>
       </c>
       <c r="D163">
-        <v>2.334664269197206</v>
+        <v>2.233264037455767</v>
       </c>
       <c r="E163">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3165,16 +3165,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>3.62311928161812</v>
+        <v>3.813673019976234</v>
       </c>
       <c r="C164">
-        <v>2.072242936315985</v>
+        <v>3.020931593580258</v>
       </c>
       <c r="D164">
-        <v>2.867278635752458</v>
-      </c>
-      <c r="E164" t="s">
-        <v>4</v>
+        <v>2.331580397407282</v>
+      </c>
+      <c r="E164">
+        <v>140</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3182,16 +3182,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>3.869040877856633</v>
+        <v>3.823030571353562</v>
       </c>
       <c r="C165">
-        <v>3.778976307507567</v>
+        <v>3.017289542584145</v>
       </c>
       <c r="D165">
-        <v>2.881329158653645</v>
+        <v>2.738790145179144</v>
       </c>
       <c r="E165">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3199,16 +3199,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>4.043936410049882</v>
+        <v>4.092634017384356</v>
       </c>
       <c r="C166">
-        <v>3.430771338270169</v>
+        <v>2.723390821219454</v>
       </c>
       <c r="D166">
-        <v>1.841712520915022</v>
+        <v>2.536580936785638</v>
       </c>
       <c r="E166">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3216,16 +3216,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>4.05185331655654</v>
+        <v>4.046082899150006</v>
       </c>
       <c r="C167">
-        <v>3.472732593537586</v>
+        <v>2.880780908880041</v>
       </c>
       <c r="D167">
-        <v>1.973497161705412</v>
+        <v>2.363708054260751</v>
       </c>
       <c r="E167">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3233,16 +3233,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>3.626372236766399</v>
+        <v>3.79971485516133</v>
       </c>
       <c r="C168">
-        <v>2.842878050683363</v>
+        <v>3.566210183210232</v>
       </c>
       <c r="D168">
-        <v>3.304182803336425</v>
+        <v>2.465249426765616</v>
       </c>
       <c r="E168">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3250,16 +3250,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>3.6633049758161</v>
+        <v>3.936042749322907</v>
       </c>
       <c r="C169">
-        <v>3.727671947984017</v>
+        <v>3.108073401972218</v>
       </c>
       <c r="D169">
-        <v>2.957132287941977</v>
+        <v>3.044113701274416</v>
       </c>
       <c r="E169">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3267,16 +3267,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>4.003650447082692</v>
+        <v>4.005995955181986</v>
       </c>
       <c r="C170">
-        <v>3.109642371807937</v>
+        <v>3.055869550513574</v>
       </c>
       <c r="D170">
-        <v>2.583623636665907</v>
+        <v>2.533098441687378</v>
       </c>
       <c r="E170">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3284,16 +3284,16 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>3.605739341300013</v>
+        <v>3.993827252502405</v>
       </c>
       <c r="C171">
-        <v>3.72638982941566</v>
+        <v>3.508805972892833</v>
       </c>
       <c r="D171">
-        <v>3.248765321139369</v>
+        <v>2.615192917275099</v>
       </c>
       <c r="E171">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3301,16 +3301,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>3.671613148961032</v>
+        <v>3.864348109826891</v>
       </c>
       <c r="C172">
-        <v>3.720108701393498</v>
+        <v>3.061300716503695</v>
       </c>
       <c r="D172">
-        <v>2.882396158674213</v>
+        <v>3.161277568778954</v>
       </c>
       <c r="E172">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3318,16 +3318,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>3.210875278646008</v>
+        <v>3.957349114165405</v>
       </c>
       <c r="C173">
-        <v>3.458065416174083</v>
+        <v>2.897441815606633</v>
       </c>
       <c r="D173">
-        <v>3.111079587943219</v>
-      </c>
-      <c r="E173" t="s">
-        <v>4</v>
+        <v>2.033770673812024</v>
+      </c>
+      <c r="E173">
+        <v>149</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3335,16 +3335,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>3.547292668102953</v>
+        <v>3.915353166276567</v>
       </c>
       <c r="C174">
-        <v>3.802482050711136</v>
+        <v>3.618781765392278</v>
       </c>
       <c r="D174">
-        <v>3.063451983303174</v>
+        <v>2.614347661729813</v>
       </c>
       <c r="E174">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3352,16 +3352,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>3.338013791794392</v>
+        <v>4.5286952961487</v>
       </c>
       <c r="C175">
-        <v>3.374294960215576</v>
+        <v>3.394636790442536</v>
       </c>
       <c r="D175">
-        <v>3.453025880891658</v>
-      </c>
-      <c r="E175" t="s">
-        <v>4</v>
+        <v>3.470724740056146</v>
+      </c>
+      <c r="E175">
+        <v>151</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3369,16 +3369,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>3.870170638524695</v>
+        <v>4.448488149507216</v>
       </c>
       <c r="C176">
-        <v>3.745594300325631</v>
+        <v>3.597517363418475</v>
       </c>
       <c r="D176">
-        <v>2.782421439756561</v>
+        <v>3.472195192276996</v>
       </c>
       <c r="E176">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3386,16 +3386,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>3.821328502676182</v>
+        <v>4.177827294412418</v>
       </c>
       <c r="C177">
-        <v>3.723371524256185</v>
+        <v>4.067177999318175</v>
       </c>
       <c r="D177">
-        <v>2.956629022793584</v>
+        <v>2.947775915223529</v>
       </c>
       <c r="E177">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3403,16 +3403,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>4.072290074658047</v>
+        <v>4.274629382516226</v>
       </c>
       <c r="C178">
-        <v>3.289263067032762</v>
+        <v>3.288938209523883</v>
       </c>
       <c r="D178">
-        <v>2.341260313330521</v>
+        <v>2.351523116352188</v>
       </c>
       <c r="E178">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3420,16 +3420,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>3.634253800817718</v>
+        <v>4.169825354596102</v>
       </c>
       <c r="C179">
-        <v>3.523039862606534</v>
+        <v>3.635504690829701</v>
       </c>
       <c r="D179">
-        <v>3.152417083399004</v>
+        <v>2.099287649632824</v>
       </c>
       <c r="E179">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3437,16 +3437,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>3.684556399463853</v>
+        <v>4.15388375200344</v>
       </c>
       <c r="C180">
-        <v>3.180286715242256</v>
+        <v>3.703039278689516</v>
       </c>
       <c r="D180">
-        <v>3.324466040538645</v>
+        <v>2.560381531805572</v>
       </c>
       <c r="E180">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3454,16 +3454,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>3.827243183020884</v>
+        <v>4.186369937048691</v>
       </c>
       <c r="C181">
-        <v>3.500933101751609</v>
+        <v>3.847897382877348</v>
       </c>
       <c r="D181">
-        <v>3.669398777831204</v>
+        <v>2.978221299134543</v>
       </c>
       <c r="E181">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3471,16 +3471,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>4.006175392238626</v>
+        <v>4.292061488403568</v>
       </c>
       <c r="C182">
-        <v>3.094388310843127</v>
+        <v>3.472003214381035</v>
       </c>
       <c r="D182">
-        <v>2.609761591180157</v>
+        <v>2.173042723649844</v>
       </c>
       <c r="E182">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3488,16 +3488,16 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>3.904198183305261</v>
+        <v>4.231481570987801</v>
       </c>
       <c r="C183">
-        <v>3.715143909390783</v>
+        <v>3.86835188284272</v>
       </c>
       <c r="D183">
-        <v>3.125372834014589</v>
+        <v>2.915328492921337</v>
       </c>
       <c r="E183">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3505,16 +3505,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>4.043071150411246</v>
+        <v>3.802295524272267</v>
       </c>
       <c r="C184">
-        <v>2.944858566840079</v>
+        <v>2.807135349905886</v>
       </c>
       <c r="D184">
-        <v>3.123513883983094</v>
+        <v>2.38249223324119</v>
       </c>
       <c r="E184">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3522,16 +3522,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>4.12214576908324</v>
+        <v>3.827850583170342</v>
       </c>
       <c r="C185">
-        <v>3.425502305212209</v>
+        <v>2.514251433885387</v>
       </c>
       <c r="D185">
-        <v>2.299365230449646</v>
+        <v>2.085598350369807</v>
       </c>
       <c r="E185">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3539,16 +3539,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>4.116895031439286</v>
+        <v>3.81851136951795</v>
       </c>
       <c r="C186">
-        <v>3.437765860690264</v>
+        <v>2.773931284947641</v>
       </c>
       <c r="D186">
-        <v>2.30219634721005</v>
+        <v>2.705116805811056</v>
       </c>
       <c r="E186">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3556,16 +3556,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>3.97667778431014</v>
+        <v>3.567797946432932</v>
       </c>
       <c r="C187">
-        <v>3.455144130707068</v>
+        <v>3.524936448646852</v>
       </c>
       <c r="D187">
-        <v>2.860461431428711</v>
+        <v>1.879685184900194</v>
       </c>
       <c r="E187">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3573,16 +3573,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>4.024538943475004</v>
+        <v>3.167970297676965</v>
       </c>
       <c r="C188">
-        <v>3.119664491362549</v>
+        <v>3.800216544218212</v>
       </c>
       <c r="D188">
-        <v>3.063868984627756</v>
+        <v>2.700837911010998</v>
       </c>
       <c r="E188">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3590,16 +3590,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>3.902290935287095</v>
+        <v>3.574722646361463</v>
       </c>
       <c r="C189">
-        <v>3.575904593501146</v>
+        <v>3.486417060888581</v>
       </c>
       <c r="D189">
-        <v>3.051426569608436</v>
+        <v>2.291689962657013</v>
       </c>
       <c r="E189">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3607,16 +3607,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>3.738446744987096</v>
+        <v>3.39519617165202</v>
       </c>
       <c r="C190">
-        <v>3.428752558719188</v>
+        <v>3.430385895967072</v>
       </c>
       <c r="D190">
-        <v>2.265481063057055</v>
+        <v>1.723716518462458</v>
       </c>
       <c r="E190">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3624,16 +3624,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>3.860260054017401</v>
+        <v>3.5004322023429</v>
       </c>
       <c r="C191">
-        <v>3.58971305250429</v>
+        <v>3.555817155756325</v>
       </c>
       <c r="D191">
-        <v>3.102622720273732</v>
+        <v>2.400922934022797</v>
       </c>
       <c r="E191">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3641,16 +3641,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>3.923933848208445</v>
+        <v>3.175374485349655</v>
       </c>
       <c r="C192">
-        <v>3.06832963737314</v>
+        <v>3.665371322997827</v>
       </c>
       <c r="D192">
-        <v>3.022554911439754</v>
+        <v>2.34102748966894</v>
       </c>
       <c r="E192">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3658,16 +3658,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>3.266133493275339</v>
+        <v>3.299692402409997</v>
       </c>
       <c r="C193">
-        <v>3.087004753681042</v>
+        <v>3.216507266612819</v>
       </c>
       <c r="D193">
-        <v>3.224571223736173</v>
-      </c>
-      <c r="E193" t="s">
-        <v>4</v>
+        <v>2.68102503214666</v>
+      </c>
+      <c r="E193">
+        <v>169</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3675,16 +3675,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>3.956796342275501</v>
+        <v>3.461609571392759</v>
       </c>
       <c r="C194">
-        <v>3.298733161872605</v>
+        <v>3.550424912313836</v>
       </c>
       <c r="D194">
-        <v>2.473410502577221</v>
+        <v>2.087565308251524</v>
       </c>
       <c r="E194">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3692,16 +3692,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>2.974725125510977</v>
+        <v>3.504804941734505</v>
       </c>
       <c r="C195">
-        <v>3.817664118058225</v>
+        <v>3.446306691229095</v>
       </c>
       <c r="D195">
-        <v>3.10102141876527</v>
-      </c>
-      <c r="E195" t="s">
-        <v>4</v>
+        <v>3.122648428594376</v>
+      </c>
+      <c r="E195">
+        <v>171</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3709,16 +3709,16 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>4.004952757571045</v>
+        <v>3.498575681596639</v>
       </c>
       <c r="C196">
-        <v>2.474178972286407</v>
+        <v>3.710697949340626</v>
       </c>
       <c r="D196">
-        <v>3.038141967194501</v>
+        <v>1.804222620931152</v>
       </c>
       <c r="E196">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3726,16 +3726,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>3.8834063481332</v>
+        <v>3.609360947048912</v>
       </c>
       <c r="C197">
-        <v>3.183970334260166</v>
+        <v>3.731109578210182</v>
       </c>
       <c r="D197">
-        <v>2.923929819443339</v>
+        <v>2.399522341910491</v>
       </c>
       <c r="E197">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3743,16 +3743,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>3.858065188490789</v>
+        <v>4.035870991267585</v>
       </c>
       <c r="C198">
-        <v>3.26818617266858</v>
+        <v>2.586330327892888</v>
       </c>
       <c r="D198">
-        <v>3.122532067135366</v>
+        <v>2.653387862770329</v>
       </c>
       <c r="E198">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3760,16 +3760,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>3.956795810333325</v>
+        <v>3.981081420953252</v>
       </c>
       <c r="C199">
-        <v>2.752198944161096</v>
+        <v>3.225490542507912</v>
       </c>
       <c r="D199">
-        <v>3.083287824262261</v>
+        <v>1.857017156526221</v>
       </c>
       <c r="E199">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3777,16 +3777,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>3.74399694815718</v>
+        <v>3.790830054251289</v>
       </c>
       <c r="C200">
-        <v>3.268327426153602</v>
+        <v>2.348035047750702</v>
       </c>
       <c r="D200">
-        <v>3.551997205581992</v>
+        <v>2.876729566579925</v>
       </c>
       <c r="E200">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3794,16 +3794,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>3.659063916669436</v>
+        <v>3.727151000682373</v>
       </c>
       <c r="C201">
-        <v>3.582903496580435</v>
+        <v>2.018504310186058</v>
       </c>
       <c r="D201">
-        <v>3.537830323966768</v>
-      </c>
-      <c r="E201">
-        <v>161</v>
+        <v>2.959863582891004</v>
+      </c>
+      <c r="E201" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3811,16 +3811,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>3.979430264640182</v>
+        <v>3.48811065027696</v>
       </c>
       <c r="C202">
-        <v>2.724292160474551</v>
+        <v>3.069863639973959</v>
       </c>
       <c r="D202">
-        <v>3.089071102284217</v>
+        <v>2.031042296499122</v>
       </c>
       <c r="E202">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3828,16 +3828,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>3.88174014886757</v>
+        <v>4.062135996076562</v>
       </c>
       <c r="C203">
-        <v>3.372594349129931</v>
+        <v>2.473341132326672</v>
       </c>
       <c r="D203">
-        <v>2.960851402871095</v>
+        <v>2.544807227584496</v>
       </c>
       <c r="E203">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3845,16 +3845,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>4.004375399211773</v>
+        <v>4.037438597455544</v>
       </c>
       <c r="C204">
-        <v>3.229991405948424</v>
+        <v>2.969787328028746</v>
       </c>
       <c r="D204">
-        <v>2.835630181937331</v>
+        <v>2.79254723555041</v>
       </c>
       <c r="E204">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3862,16 +3862,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>4.070099712611292</v>
+        <v>4.081852998566223</v>
       </c>
       <c r="C205">
-        <v>3.545091935562142</v>
+        <v>3.153524784080544</v>
       </c>
       <c r="D205">
-        <v>2.577959911032813</v>
+        <v>2.750792963847585</v>
       </c>
       <c r="E205">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3879,16 +3879,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>4.218961994196417</v>
+        <v>3.955340100170452</v>
       </c>
       <c r="C206">
-        <v>4.016018024492988</v>
+        <v>2.068809356353086</v>
       </c>
       <c r="D206">
-        <v>2.314397592301073</v>
-      </c>
-      <c r="E206">
-        <v>166</v>
+        <v>1.691308223214153</v>
+      </c>
+      <c r="E206" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3896,16 +3896,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>4.161814759883707</v>
+        <v>4.064119315382389</v>
       </c>
       <c r="C207">
-        <v>3.446135051387097</v>
+        <v>3.009612504968168</v>
       </c>
       <c r="D207">
-        <v>2.683453067202272</v>
+        <v>2.431761626337787</v>
       </c>
       <c r="E207">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3913,16 +3913,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>3.910678107780946</v>
+        <v>4.6528294441449</v>
       </c>
       <c r="C208">
-        <v>2.480235489071259</v>
+        <v>3.957004537095449</v>
       </c>
       <c r="D208">
-        <v>2.684424593971565</v>
-      </c>
-      <c r="E208">
-        <v>168</v>
+        <v>3.341333401600334</v>
+      </c>
+      <c r="E208" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3930,16 +3930,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>4.318749008624039</v>
+        <v>4.679233910143119</v>
       </c>
       <c r="C209">
-        <v>3.6554724155518</v>
+        <v>3.971440695930318</v>
       </c>
       <c r="D209">
-        <v>2.144260895334485</v>
-      </c>
-      <c r="E209">
-        <v>169</v>
+        <v>3.269664537576897</v>
+      </c>
+      <c r="E209" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3947,16 +3947,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>4.278702182731079</v>
+        <v>4.653548900472483</v>
       </c>
       <c r="C210">
-        <v>3.405372061897697</v>
+        <v>3.95913746928025</v>
       </c>
       <c r="D210">
-        <v>2.212375741507638</v>
-      </c>
-      <c r="E210">
-        <v>170</v>
+        <v>3.352796586273481</v>
+      </c>
+      <c r="E210" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3964,16 +3964,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>3.959242627075516</v>
+        <v>2.924215398007657</v>
       </c>
       <c r="C211">
-        <v>3.397618460351647</v>
+        <v>2.90444728503987</v>
       </c>
       <c r="D211">
-        <v>2.681400597974086</v>
+        <v>3.071811205946419</v>
       </c>
       <c r="E211">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3981,16 +3981,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>3.963500645071099</v>
+        <v>3.120777141668798</v>
       </c>
       <c r="C212">
-        <v>3.698368231972458</v>
+        <v>3.603653508837252</v>
       </c>
       <c r="D212">
-        <v>3.449526495675808</v>
+        <v>3.054500390297175</v>
       </c>
       <c r="E212">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3998,16 +3998,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>3.806213599110825</v>
+        <v>3.635694494956616</v>
       </c>
       <c r="C213">
-        <v>2.46025385329143</v>
+        <v>2.435518633083916</v>
       </c>
       <c r="D213">
-        <v>2.668017260367643</v>
+        <v>3.774253175382756</v>
       </c>
       <c r="E213">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4015,16 +4015,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>3.911898473830487</v>
+        <v>3.44816565867496</v>
       </c>
       <c r="C214">
-        <v>3.858130425935677</v>
+        <v>2.929747301860082</v>
       </c>
       <c r="D214">
-        <v>3.418385947426811</v>
+        <v>2.984861013951887</v>
       </c>
       <c r="E214">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4032,16 +4032,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>4.753789279368244</v>
+        <v>3.802639115498051</v>
       </c>
       <c r="C215">
-        <v>3.55206039181979</v>
+        <v>3.145652687818316</v>
       </c>
       <c r="D215">
-        <v>3.615400412332483</v>
-      </c>
-      <c r="E215" t="s">
-        <v>4</v>
+        <v>3.123608295048936</v>
+      </c>
+      <c r="E215">
+        <v>186</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4049,16 +4049,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>4.712844665205413</v>
+        <v>3.786692153167317</v>
       </c>
       <c r="C216">
-        <v>3.783033788436464</v>
+        <v>3.049519630066734</v>
       </c>
       <c r="D216">
-        <v>3.570407058024006</v>
-      </c>
-      <c r="E216" t="s">
-        <v>4</v>
+        <v>1.738432875921094</v>
+      </c>
+      <c r="E216">
+        <v>187</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4066,16 +4066,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>4.723828248389928</v>
+        <v>3.751079058255615</v>
       </c>
       <c r="C217">
-        <v>3.775196211703148</v>
+        <v>3.508479836125962</v>
       </c>
       <c r="D217">
-        <v>3.543932374672013</v>
-      </c>
-      <c r="E217" t="s">
-        <v>4</v>
+        <v>1.86670187773942</v>
+      </c>
+      <c r="E217">
+        <v>188</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4083,16 +4083,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>4.543068636642075</v>
+        <v>3.686865651162131</v>
       </c>
       <c r="C218">
-        <v>2.397585383460016</v>
+        <v>3.723824108571819</v>
       </c>
       <c r="D218">
-        <v>3.478942712473585</v>
+        <v>2.110933821801196</v>
       </c>
       <c r="E218">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4100,16 +4100,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>4.785681928201754</v>
+        <v>3.870661986106644</v>
       </c>
       <c r="C219">
-        <v>3.764641146817857</v>
+        <v>3.743296837863004</v>
       </c>
       <c r="D219">
-        <v>3.419750799857176</v>
-      </c>
-      <c r="E219" t="s">
-        <v>4</v>
+        <v>1.737299221363439</v>
+      </c>
+      <c r="E219">
+        <v>190</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4117,16 +4117,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>3.791152697445226</v>
+        <v>3.743385982525698</v>
       </c>
       <c r="C220">
-        <v>3.767513803638901</v>
+        <v>3.191807760697106</v>
       </c>
       <c r="D220">
-        <v>1.875565747465773</v>
+        <v>1.658509879465699</v>
       </c>
       <c r="E220">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4134,16 +4134,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>3.971291415073073</v>
+        <v>3.836741149802156</v>
       </c>
       <c r="C221">
-        <v>3.570462274961812</v>
+        <v>3.108830815029211</v>
       </c>
       <c r="D221">
-        <v>2.852828322478763</v>
+        <v>1.989857169082363</v>
       </c>
       <c r="E221">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4151,16 +4151,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>4.001790721041997</v>
+        <v>3.687452275425651</v>
       </c>
       <c r="C222">
-        <v>3.576638424158407</v>
+        <v>3.750517093213758</v>
       </c>
       <c r="D222">
-        <v>2.624275952386576</v>
+        <v>2.153492430106491</v>
       </c>
       <c r="E222">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4168,16 +4168,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>3.775620186854278</v>
+        <v>3.652531468542557</v>
       </c>
       <c r="C223">
-        <v>3.760144880005049</v>
+        <v>3.40400832611155</v>
       </c>
       <c r="D223">
-        <v>2.66795818774472</v>
+        <v>3.341545848637522</v>
       </c>
       <c r="E223">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4185,16 +4185,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>3.794863906909157</v>
+        <v>3.698418011628661</v>
       </c>
       <c r="C224">
-        <v>3.681970764326864</v>
+        <v>3.11945406175598</v>
       </c>
       <c r="D224">
-        <v>2.493471802314982</v>
+        <v>1.794573787669521</v>
       </c>
       <c r="E224">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4202,16 +4202,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>3.986902506573729</v>
+        <v>3.792648865804343</v>
       </c>
       <c r="C225">
-        <v>3.603994103236149</v>
+        <v>3.726929458740259</v>
       </c>
       <c r="D225">
-        <v>2.091891659095407</v>
+        <v>2.820502469777191</v>
       </c>
       <c r="E225">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4219,16 +4219,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>3.992755790874615</v>
+        <v>3.709402221771759</v>
       </c>
       <c r="C226">
-        <v>3.566055119157454</v>
+        <v>3.287506988743083</v>
       </c>
       <c r="D226">
-        <v>2.61128675905373</v>
+        <v>1.700511682952253</v>
       </c>
       <c r="E226">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4236,16 +4236,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>3.911135685162757</v>
+        <v>3.65615227497522</v>
       </c>
       <c r="C227">
-        <v>2.508837003028082</v>
+        <v>3.481817442453034</v>
       </c>
       <c r="D227">
-        <v>2.293599559426441</v>
+        <v>2.079040449580703</v>
       </c>
       <c r="E227">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4253,16 +4253,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>3.793528386730389</v>
+        <v>3.707580579131639</v>
       </c>
       <c r="C228">
-        <v>4.045931034207976</v>
+        <v>3.632339668415654</v>
       </c>
       <c r="D228">
-        <v>3.197624579855439</v>
+        <v>1.885216275895386</v>
       </c>
       <c r="E228">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4270,16 +4270,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>4.119561612486726</v>
+        <v>3.767450617150555</v>
       </c>
       <c r="C229">
-        <v>3.439469983887683</v>
+        <v>3.74406723174736</v>
       </c>
       <c r="D229">
-        <v>2.393415572184262</v>
+        <v>2.200136907468293</v>
       </c>
       <c r="E229">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4287,16 +4287,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>3.772730972333884</v>
+        <v>3.3582294399061</v>
       </c>
       <c r="C230">
-        <v>2.791897229317673</v>
+        <v>3.545246353383153</v>
       </c>
       <c r="D230">
-        <v>2.494616476409094</v>
+        <v>2.146946611132475</v>
       </c>
       <c r="E230">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4304,16 +4304,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>4.152489909649579</v>
+        <v>3.468303159257306</v>
       </c>
       <c r="C231">
-        <v>3.646864769740068</v>
+        <v>3.410618838452678</v>
       </c>
       <c r="D231">
-        <v>1.579108751909426</v>
+        <v>2.139624540592746</v>
       </c>
       <c r="E231">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4321,16 +4321,16 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>3.763754647499926</v>
+        <v>3.870633294138601</v>
       </c>
       <c r="C232">
-        <v>2.850121883340048</v>
+        <v>3.699626128287733</v>
       </c>
       <c r="D232">
-        <v>2.689109506613188</v>
+        <v>1.99776850897514</v>
       </c>
       <c r="E232">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4338,16 +4338,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3.898341938600761</v>
+        <v>1.833266927502983</v>
       </c>
       <c r="C233">
-        <v>2.521671313697648</v>
+        <v>3.51065385243922</v>
       </c>
       <c r="D233">
-        <v>3.212918558305815</v>
-      </c>
-      <c r="E233">
-        <v>189</v>
+        <v>3.552351467760907</v>
+      </c>
+      <c r="E233" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4355,16 +4355,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>3.73403525315416</v>
+        <v>1.320811902809787</v>
       </c>
       <c r="C234">
-        <v>3.087340900559446</v>
+        <v>3.440064574145905</v>
       </c>
       <c r="D234">
-        <v>2.90628090486478</v>
-      </c>
-      <c r="E234">
-        <v>190</v>
+        <v>3.024619783574405</v>
+      </c>
+      <c r="E234" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4372,16 +4372,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>3.825659002643375</v>
+        <v>2.7797022674958</v>
       </c>
       <c r="C235">
-        <v>2.533755269584351</v>
+        <v>3.816653712112953</v>
       </c>
       <c r="D235">
-        <v>3.375145998178458</v>
+        <v>3.289772333998485</v>
       </c>
       <c r="E235">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4389,16 +4389,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>4.001782570400719</v>
+        <v>1.613063236335845</v>
       </c>
       <c r="C236">
-        <v>3.221510444582416</v>
+        <v>3.371455037742151</v>
       </c>
       <c r="D236">
-        <v>2.979137064365575</v>
-      </c>
-      <c r="E236">
-        <v>192</v>
+        <v>2.999023489196678</v>
+      </c>
+      <c r="E236" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4406,16 +4406,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>3.860163594944814</v>
+        <v>1.96750419648178</v>
       </c>
       <c r="C237">
-        <v>3.061159767887621</v>
+        <v>3.533289298809879</v>
       </c>
       <c r="D237">
-        <v>2.89374913168725</v>
-      </c>
-      <c r="E237">
-        <v>193</v>
+        <v>3.050491376207226</v>
+      </c>
+      <c r="E237" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4423,16 +4423,16 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>3.804276353220434</v>
+        <v>2.953375725967352</v>
       </c>
       <c r="C238">
-        <v>3.426395770068842</v>
+        <v>2.263976079665122</v>
       </c>
       <c r="D238">
-        <v>3.325441613332416</v>
+        <v>2.065792862188795</v>
       </c>
       <c r="E238">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4440,16 +4440,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>3.505814848211505</v>
+        <v>3.264243830557001</v>
       </c>
       <c r="C239">
-        <v>2.949190477979025</v>
+        <v>3.294169739509872</v>
       </c>
       <c r="D239">
-        <v>2.962599606801902</v>
+        <v>3.173082394235326</v>
       </c>
       <c r="E239">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4457,16 +4457,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>4.201689154984389</v>
+        <v>2.606733666333866</v>
       </c>
       <c r="C240">
-        <v>3.594670115469007</v>
+        <v>3.403539308834443</v>
       </c>
       <c r="D240">
-        <v>2.383084335825245</v>
-      </c>
-      <c r="E240">
-        <v>196</v>
+        <v>3.133614672785904</v>
+      </c>
+      <c r="E240" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4474,16 +4474,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>3.937011438011224</v>
+        <v>3.166823755411246</v>
       </c>
       <c r="C241">
-        <v>2.50072705736875</v>
+        <v>3.622294317910244</v>
       </c>
       <c r="D241">
-        <v>3.198521540032355</v>
+        <v>3.357055999485153</v>
       </c>
       <c r="E241">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4491,16 +4491,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>4.023104320810536</v>
+        <v>3.123863025819881</v>
       </c>
       <c r="C242">
-        <v>1.572443518420294</v>
+        <v>3.759269014644067</v>
       </c>
       <c r="D242">
-        <v>2.870661855478958</v>
-      </c>
-      <c r="E242" t="s">
-        <v>4</v>
+        <v>3.070119885820038</v>
+      </c>
+      <c r="E242">
+        <v>208</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4508,16 +4508,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>3.720454415886542</v>
+        <v>3.17760458809623</v>
       </c>
       <c r="C243">
-        <v>3.22053831352422</v>
+        <v>2.998298744820198</v>
       </c>
       <c r="D243">
-        <v>2.970519757655887</v>
+        <v>2.656052202793724</v>
       </c>
       <c r="E243">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4525,16 +4525,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>4.115261554783094</v>
+        <v>2.916459700432545</v>
       </c>
       <c r="C244">
-        <v>3.451257700203862</v>
+        <v>3.88404080905754</v>
       </c>
       <c r="D244">
-        <v>2.403914175790245</v>
+        <v>3.605629711827634</v>
       </c>
       <c r="E244">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4542,16 +4542,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>3.729967800012902</v>
+        <v>2.784343530351594</v>
       </c>
       <c r="C245">
-        <v>2.610177231924465</v>
+        <v>3.856330620715783</v>
       </c>
       <c r="D245">
-        <v>2.764554390053207</v>
+        <v>3.135239157792581</v>
       </c>
       <c r="E245">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4559,16 +4559,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>3.970677631134521</v>
+        <v>3.326237655900818</v>
       </c>
       <c r="C246">
-        <v>3.513154747080583</v>
+        <v>3.155412701981174</v>
       </c>
       <c r="D246">
-        <v>3.039997332771444</v>
+        <v>3.169622707271779</v>
       </c>
       <c r="E246">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4576,16 +4576,16 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>3.663798239954084</v>
+        <v>3.734873256909734</v>
       </c>
       <c r="C247">
-        <v>3.12502145482793</v>
+        <v>3.862682663598737</v>
       </c>
       <c r="D247">
-        <v>3.040403690365922</v>
+        <v>2.246622906799359</v>
       </c>
       <c r="E247">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4593,16 +4593,16 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>3.758651160050559</v>
+        <v>3.811606510742974</v>
       </c>
       <c r="C248">
-        <v>3.51982912976256</v>
+        <v>3.806678772948139</v>
       </c>
       <c r="D248">
-        <v>2.820113226667318</v>
+        <v>2.178528781936657</v>
       </c>
       <c r="E248">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4610,16 +4610,16 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>3.989158232297255</v>
+        <v>3.7197549036482</v>
       </c>
       <c r="C249">
-        <v>3.28045020705822</v>
+        <v>3.341686435906762</v>
       </c>
       <c r="D249">
-        <v>3.198388126857858</v>
+        <v>1.379238227176994</v>
       </c>
       <c r="E249">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4627,16 +4627,16 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>4.169077815924524</v>
+        <v>3.684019553911221</v>
       </c>
       <c r="C250">
-        <v>3.334874173848735</v>
+        <v>3.450828546098826</v>
       </c>
       <c r="D250">
-        <v>2.706792810151815</v>
+        <v>1.704797468755805</v>
       </c>
       <c r="E250">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4644,16 +4644,16 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>4.065027534186958</v>
+        <v>3.781355446894124</v>
       </c>
       <c r="C251">
-        <v>3.33332389411881</v>
+        <v>2.858832245244454</v>
       </c>
       <c r="D251">
-        <v>2.499015687803732</v>
+        <v>1.224632729228202</v>
       </c>
       <c r="E251">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4661,16 +4661,16 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>4.028432660716545</v>
+        <v>3.83625714282045</v>
       </c>
       <c r="C252">
-        <v>3.727803271639217</v>
+        <v>3.248944575979007</v>
       </c>
       <c r="D252">
-        <v>2.095284083219326</v>
+        <v>1.942061953489335</v>
       </c>
       <c r="E252">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4678,16 +4678,16 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>4.068117587002582</v>
+        <v>4.018171905993181</v>
       </c>
       <c r="C253">
-        <v>3.080912377194036</v>
+        <v>4.036741212198525</v>
       </c>
       <c r="D253">
-        <v>2.749306832291149</v>
+        <v>2.114981562145252</v>
       </c>
       <c r="E253">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4695,16 +4695,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>3.975926595926454</v>
+        <v>3.644830853628203</v>
       </c>
       <c r="C254">
-        <v>2.602171915086601</v>
+        <v>3.524125661850578</v>
       </c>
       <c r="D254">
-        <v>2.868936618594235</v>
+        <v>3.318625850684272</v>
       </c>
       <c r="E254">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4712,16 +4712,16 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>3.976851343485821</v>
+        <v>4.0521536136279</v>
       </c>
       <c r="C255">
-        <v>2.931945122736172</v>
+        <v>3.922709657960103</v>
       </c>
       <c r="D255">
-        <v>2.902314583111747</v>
+        <v>2.333096301892803</v>
       </c>
       <c r="E255">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4729,16 +4729,16 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>3.995905407312861</v>
+        <v>3.930265287665575</v>
       </c>
       <c r="C256">
-        <v>2.800159900832267</v>
+        <v>3.954925974963345</v>
       </c>
       <c r="D256">
-        <v>2.381719662664322</v>
+        <v>2.56317434066486</v>
       </c>
       <c r="E256">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4746,16 +4746,16 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>3.88974742163064</v>
+        <v>3.900386264159279</v>
       </c>
       <c r="C257">
-        <v>3.961006497320889</v>
+        <v>4.039146096974848</v>
       </c>
       <c r="D257">
-        <v>3.517700008530497</v>
+        <v>2.627078847943827</v>
       </c>
       <c r="E257">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4763,16 +4763,16 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>3.99612836755814</v>
+        <v>3.805796751806802</v>
       </c>
       <c r="C258">
-        <v>2.777464791117814</v>
+        <v>3.29245694740554</v>
       </c>
       <c r="D258">
-        <v>2.589161595950959</v>
+        <v>3.321538114373654</v>
       </c>
       <c r="E258">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4780,16 +4780,16 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>4.214829326727449</v>
+        <v>3.653950468318524</v>
       </c>
       <c r="C259">
-        <v>3.271062512090813</v>
+        <v>3.124993588332476</v>
       </c>
       <c r="D259">
-        <v>2.884295051124958</v>
+        <v>2.96564638145522</v>
       </c>
       <c r="E259">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4797,16 +4797,16 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>3.908841527869818</v>
+        <v>3.561560761519298</v>
       </c>
       <c r="C260">
-        <v>2.527816334939841</v>
+        <v>3.32288950586071</v>
       </c>
       <c r="D260">
-        <v>2.940410452633318</v>
+        <v>2.908341984812898</v>
       </c>
       <c r="E260">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4814,16 +4814,16 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>3.665846942704525</v>
+        <v>3.566544721175114</v>
       </c>
       <c r="C261">
-        <v>3.819606137431746</v>
+        <v>2.789351682424542</v>
       </c>
       <c r="D261">
-        <v>3.024526915757466</v>
+        <v>3.418082508542943</v>
       </c>
       <c r="E261">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4831,16 +4831,16 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>3.965523570293341</v>
+        <v>3.55778494171796</v>
       </c>
       <c r="C262">
-        <v>3.027832971256646</v>
+        <v>3.636668642629866</v>
       </c>
       <c r="D262">
-        <v>2.434588590229529</v>
+        <v>2.936909886139314</v>
       </c>
       <c r="E262">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4848,16 +4848,16 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>4.213243493410782</v>
+        <v>3.490566370304825</v>
       </c>
       <c r="C263">
-        <v>3.813227335621721</v>
+        <v>3.307045204948735</v>
       </c>
       <c r="D263">
-        <v>3.562523868479849</v>
+        <v>3.352328165741414</v>
       </c>
       <c r="E263">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4865,16 +4865,16 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>3.873192174462835</v>
+        <v>3.486033628658265</v>
       </c>
       <c r="C264">
-        <v>3.877319053026814</v>
+        <v>3.37627511503712</v>
       </c>
       <c r="D264">
-        <v>3.612099231700665</v>
+        <v>2.121865994482568</v>
       </c>
       <c r="E264">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4882,16 +4882,16 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>3.35620145621621</v>
+        <v>3.806094804326201</v>
       </c>
       <c r="C265">
-        <v>2.668591091816589</v>
+        <v>3.449250705704763</v>
       </c>
       <c r="D265">
-        <v>2.986800800553682</v>
-      </c>
-      <c r="E265" t="s">
-        <v>4</v>
+        <v>2.427007666452851</v>
+      </c>
+      <c r="E265">
+        <v>231</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4899,16 +4899,16 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>3.969682043255058</v>
+        <v>3.455113683165458</v>
       </c>
       <c r="C266">
-        <v>3.55241319185108</v>
+        <v>3.688427958154224</v>
       </c>
       <c r="D266">
-        <v>2.881089543499436</v>
+        <v>2.097692084928271</v>
       </c>
       <c r="E266">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4916,16 +4916,16 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>3.984654514887755</v>
+        <v>3.495771961657276</v>
       </c>
       <c r="C267">
-        <v>3.71545508974905</v>
+        <v>3.491899712398055</v>
       </c>
       <c r="D267">
-        <v>3.859362830421081</v>
+        <v>2.33905261139649</v>
       </c>
       <c r="E267">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4933,16 +4933,16 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>3.688259816417506</v>
+        <v>3.416306408725383</v>
       </c>
       <c r="C268">
-        <v>3.734235059843316</v>
+        <v>3.584674272559202</v>
       </c>
       <c r="D268">
-        <v>3.226650244860797</v>
+        <v>2.094403427527695</v>
       </c>
       <c r="E268">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4950,16 +4950,16 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>3.981396000752134</v>
+        <v>3.685261543027318</v>
       </c>
       <c r="C269">
-        <v>3.861363700247882</v>
+        <v>3.637254122339983</v>
       </c>
       <c r="D269">
-        <v>3.425981570029919</v>
+        <v>2.883855718045373</v>
       </c>
       <c r="E269">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4967,16 +4967,16 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>3.58159964135685</v>
+        <v>3.961548273100727</v>
       </c>
       <c r="C270">
-        <v>2.870031229903288</v>
+        <v>3.683887802121355</v>
       </c>
       <c r="D270">
-        <v>2.95918355397975</v>
+        <v>1.59069051598966</v>
       </c>
       <c r="E270">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4984,16 +4984,16 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>3.603374224311847</v>
+        <v>3.74097923595303</v>
       </c>
       <c r="C271">
-        <v>3.163237955268738</v>
+        <v>3.235110206491187</v>
       </c>
       <c r="D271">
-        <v>3.321586601654586</v>
+        <v>3.323049770603226</v>
       </c>
       <c r="E271">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5001,16 +5001,16 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>3.657776879334248</v>
+        <v>3.661531893125885</v>
       </c>
       <c r="C272">
-        <v>4.04517173053341</v>
+        <v>3.20608275831708</v>
       </c>
       <c r="D272">
-        <v>2.93349233151983</v>
+        <v>3.293115576623536</v>
       </c>
       <c r="E272">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5018,16 +5018,16 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>3.750399642041681</v>
+        <v>3.66096924523451</v>
       </c>
       <c r="C273">
-        <v>3.724372506000307</v>
+        <v>2.927455468720008</v>
       </c>
       <c r="D273">
-        <v>3.02477221661818</v>
+        <v>2.350269840116651</v>
       </c>
       <c r="E273">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5035,16 +5035,16 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>4.478498158974452</v>
+        <v>3.588575207228338</v>
       </c>
       <c r="C274">
-        <v>3.572498755613626</v>
+        <v>2.742533993921439</v>
       </c>
       <c r="D274">
-        <v>2.879946618845755</v>
+        <v>2.551804154153917</v>
       </c>
       <c r="E274">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5052,16 +5052,16 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>4.428375635579249</v>
+        <v>4.227164721578694</v>
       </c>
       <c r="C275">
-        <v>3.038299308596345</v>
+        <v>3.742595636723368</v>
       </c>
       <c r="D275">
-        <v>2.817413460475908</v>
+        <v>2.401368369815645</v>
       </c>
       <c r="E275">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5069,16 +5069,16 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>4.42501003378202</v>
+        <v>4.441197982175929</v>
       </c>
       <c r="C276">
-        <v>3.648120507284178</v>
+        <v>3.655145817214299</v>
       </c>
       <c r="D276">
-        <v>3.152011723964243</v>
+        <v>2.86818332506607</v>
       </c>
       <c r="E276">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5086,16 +5086,16 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>4.087763400818996</v>
+        <v>4.193491384829782</v>
       </c>
       <c r="C277">
-        <v>2.727288819538527</v>
+        <v>3.359662885049778</v>
       </c>
       <c r="D277">
-        <v>3.586108175666179</v>
+        <v>2.073386443244725</v>
       </c>
       <c r="E277">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5103,16 +5103,16 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>3.971929546471368</v>
+        <v>4.407587708566311</v>
       </c>
       <c r="C278">
-        <v>3.174480021520411</v>
+        <v>3.585874997917395</v>
       </c>
       <c r="D278">
-        <v>3.336880026010697</v>
+        <v>2.901751411620694</v>
       </c>
       <c r="E278">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5120,16 +5120,16 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>3.659257303234879</v>
+        <v>4.163873183841756</v>
       </c>
       <c r="C279">
-        <v>1.881999272448409</v>
+        <v>3.462037063674058</v>
       </c>
       <c r="D279">
-        <v>3.643536450196437</v>
-      </c>
-      <c r="E279" t="s">
-        <v>4</v>
+        <v>2.397851150263339</v>
+      </c>
+      <c r="E279">
+        <v>245</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5137,16 +5137,16 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>4.023257890886901</v>
+        <v>4.108659019669877</v>
       </c>
       <c r="C280">
-        <v>2.899768240663911</v>
+        <v>3.430800050173797</v>
       </c>
       <c r="D280">
-        <v>3.131064631908015</v>
+        <v>3.019061206574339</v>
       </c>
       <c r="E280">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5154,16 +5154,16 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>3.812566936434198</v>
+        <v>4.365686452201123</v>
       </c>
       <c r="C281">
-        <v>1.998621582401801</v>
+        <v>3.627463390876146</v>
       </c>
       <c r="D281">
-        <v>3.451943344370596</v>
-      </c>
-      <c r="E281" t="s">
-        <v>4</v>
+        <v>2.956991798369829</v>
+      </c>
+      <c r="E281">
+        <v>247</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5171,16 +5171,16 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>4.547335374361371</v>
+        <v>4.107925839794659</v>
       </c>
       <c r="C282">
-        <v>3.067501533756363</v>
+        <v>3.796806482327903</v>
       </c>
       <c r="D282">
-        <v>2.368122394490415</v>
+        <v>2.151622455297507</v>
       </c>
       <c r="E282">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5188,16 +5188,16 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>4.516505395670388</v>
+        <v>4.138305153696894</v>
       </c>
       <c r="C283">
-        <v>2.887647951680747</v>
+        <v>3.695574031261038</v>
       </c>
       <c r="D283">
-        <v>2.321841022387988</v>
+        <v>2.949541316532384</v>
       </c>
       <c r="E283">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5205,16 +5205,16 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>4.638022419926195</v>
+        <v>3.854631267027297</v>
       </c>
       <c r="C284">
-        <v>3.534698939661975</v>
+        <v>2.989645140776545</v>
       </c>
       <c r="D284">
-        <v>1.809125080245381</v>
-      </c>
-      <c r="E284" t="s">
-        <v>4</v>
+        <v>2.151472040328154</v>
+      </c>
+      <c r="E284">
+        <v>250</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5222,16 +5222,16 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>4.439025875560507</v>
+        <v>3.741740932133372</v>
       </c>
       <c r="C285">
-        <v>3.815477216231609</v>
+        <v>2.548490705755956</v>
       </c>
       <c r="D285">
-        <v>3.47636646211087</v>
+        <v>3.388998970882715</v>
       </c>
       <c r="E285">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5239,16 +5239,16 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>4.327894590052453</v>
+        <v>3.764688210429028</v>
       </c>
       <c r="C286">
-        <v>3.977551806324464</v>
+        <v>3.229368957590482</v>
       </c>
       <c r="D286">
-        <v>2.349764791365337</v>
+        <v>2.351776344109246</v>
       </c>
       <c r="E286">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5256,16 +5256,16 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>4.176347622859433</v>
+        <v>3.793998502902835</v>
       </c>
       <c r="C287">
-        <v>2.73197994411381</v>
+        <v>2.947443485938689</v>
       </c>
       <c r="D287">
-        <v>2.651327953207538</v>
+        <v>1.995278719203921</v>
       </c>
       <c r="E287">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5273,16 +5273,16 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>4.24244230764994</v>
+        <v>3.858559515388802</v>
       </c>
       <c r="C288">
-        <v>2.431866192107577</v>
+        <v>2.693270652506579</v>
       </c>
       <c r="D288">
-        <v>3.542065264749734</v>
+        <v>3.19944906767342</v>
       </c>
       <c r="E288">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5290,16 +5290,16 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>4.333697834216467</v>
+        <v>3.504175842291632</v>
       </c>
       <c r="C289">
-        <v>3.760933560712446</v>
+        <v>3.992862418566495</v>
       </c>
       <c r="D289">
-        <v>1.760723690350176</v>
+        <v>2.465589389177648</v>
       </c>
       <c r="E289">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5307,16 +5307,16 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>4.354952632334844</v>
+        <v>3.493257293545412</v>
       </c>
       <c r="C290">
-        <v>3.631231069690941</v>
+        <v>3.956155463270363</v>
       </c>
       <c r="D290">
-        <v>1.674868085918695</v>
+        <v>2.368258039204145</v>
       </c>
       <c r="E290">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5324,16 +5324,16 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>4.250913730532238</v>
+        <v>3.512455654452296</v>
       </c>
       <c r="C291">
-        <v>2.953636647564537</v>
+        <v>3.781206519557109</v>
       </c>
       <c r="D291">
-        <v>2.445073368827508</v>
+        <v>2.861461247165002</v>
       </c>
       <c r="E291">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5341,16 +5341,16 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>3.936110362516614</v>
+        <v>3.511966774702973</v>
       </c>
       <c r="C292">
-        <v>3.007294058961325</v>
+        <v>3.066747488004499</v>
       </c>
       <c r="D292">
-        <v>2.838604368277371</v>
+        <v>2.956690972696478</v>
       </c>
       <c r="E292">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5358,16 +5358,16 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>3.877130864540114</v>
+        <v>3.576735540500928</v>
       </c>
       <c r="C293">
-        <v>3.389396931650905</v>
+        <v>3.395100259774806</v>
       </c>
       <c r="D293">
-        <v>2.615432484513701</v>
+        <v>3.353943463359061</v>
       </c>
       <c r="E293">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5375,16 +5375,16 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>4.017641518985963</v>
+        <v>3.443234252854114</v>
       </c>
       <c r="C294">
-        <v>3.899154714846418</v>
+        <v>2.824903521907577</v>
       </c>
       <c r="D294">
-        <v>3.48450860908288</v>
+        <v>1.712189370144358</v>
       </c>
       <c r="E294">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5392,16 +5392,16 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>3.981069420464026</v>
+        <v>3.448323096996832</v>
       </c>
       <c r="C295">
-        <v>3.744262689142428</v>
+        <v>2.731331903175996</v>
       </c>
       <c r="D295">
-        <v>2.714335766744279</v>
+        <v>3.224580304953818</v>
       </c>
       <c r="E295">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5409,16 +5409,16 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>4.102093518239433</v>
+        <v>3.4528245798319</v>
       </c>
       <c r="C296">
-        <v>3.660425057170571</v>
+        <v>3.821148325499486</v>
       </c>
       <c r="D296">
-        <v>3.022961095353911</v>
+        <v>2.45222259156202</v>
       </c>
       <c r="E296">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5426,16 +5426,16 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>3.997491821284332</v>
+        <v>3.884225820579394</v>
       </c>
       <c r="C297">
-        <v>2.880328403728536</v>
+        <v>3.487614549598176</v>
       </c>
       <c r="D297">
-        <v>3.002996837233748</v>
+        <v>1.364052552653236</v>
       </c>
       <c r="E297">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5443,16 +5443,16 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>3.805853243207097</v>
+        <v>3.715512570145887</v>
       </c>
       <c r="C298">
-        <v>3.328434010003415</v>
+        <v>3.622358923067743</v>
       </c>
       <c r="D298">
-        <v>3.184517935339677</v>
+        <v>2.318304438031932</v>
       </c>
       <c r="E298">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5460,16 +5460,16 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>3.989596121616171</v>
+        <v>3.767253070108525</v>
       </c>
       <c r="C299">
-        <v>2.800405711340455</v>
+        <v>2.747373092881633</v>
       </c>
       <c r="D299">
-        <v>2.711352393908985</v>
+        <v>2.2073301227453</v>
       </c>
       <c r="E299">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5477,16 +5477,16 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>4.219077902607191</v>
+        <v>3.692090073429306</v>
       </c>
       <c r="C300">
-        <v>4.003824071139744</v>
+        <v>3.291997266298468</v>
       </c>
       <c r="D300">
-        <v>3.398039523982447</v>
+        <v>2.884771042588887</v>
       </c>
       <c r="E300">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5494,16 +5494,16 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>4.013627451128252</v>
+        <v>3.692748674297908</v>
       </c>
       <c r="C301">
-        <v>3.971508916937657</v>
+        <v>2.741935967937499</v>
       </c>
       <c r="D301">
-        <v>3.20035675215011</v>
+        <v>2.12437222665383</v>
       </c>
       <c r="E301">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5511,16 +5511,16 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>4.089651710458819</v>
+        <v>3.563692947911115</v>
       </c>
       <c r="C302">
-        <v>3.648610389009128</v>
+        <v>3.510462517715246</v>
       </c>
       <c r="D302">
-        <v>2.476607790059869</v>
+        <v>2.383541491452237</v>
       </c>
       <c r="E302">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5528,16 +5528,16 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>4.074727977379816</v>
+        <v>3.698800362724884</v>
       </c>
       <c r="C303">
-        <v>3.76164891969665</v>
+        <v>3.365053553657004</v>
       </c>
       <c r="D303">
-        <v>2.045090315217293</v>
+        <v>3.335085857679463</v>
       </c>
       <c r="E303">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5545,16 +5545,16 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>3.938936726332662</v>
+        <v>4.071797092827825</v>
       </c>
       <c r="C304">
-        <v>3.536309155069728</v>
+        <v>3.845122362217526</v>
       </c>
       <c r="D304">
-        <v>2.419763414865744</v>
+        <v>2.331843187168194</v>
       </c>
       <c r="E304">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5562,16 +5562,16 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>4.082629463382445</v>
+        <v>3.40978593625729</v>
       </c>
       <c r="C305">
-        <v>3.766679316470203</v>
+        <v>3.013395262437725</v>
       </c>
       <c r="D305">
-        <v>2.071031888686393</v>
+        <v>2.268838389169733</v>
       </c>
       <c r="E305">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5579,16 +5579,16 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>4.072944971578406</v>
+        <v>3.650995471537755</v>
       </c>
       <c r="C306">
-        <v>3.521332530104865</v>
+        <v>3.518304350369226</v>
       </c>
       <c r="D306">
-        <v>1.999449388381015</v>
+        <v>2.103511557069585</v>
       </c>
       <c r="E306">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5596,16 +5596,16 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>3.95705928296834</v>
+        <v>3.572622239722736</v>
       </c>
       <c r="C307">
-        <v>3.83216275235803</v>
+        <v>3.180728139720399</v>
       </c>
       <c r="D307">
-        <v>2.750239895041544</v>
+        <v>1.837029322187054</v>
       </c>
       <c r="E307">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5613,16 +5613,16 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>4.042496143751897</v>
+        <v>3.300445949253603</v>
       </c>
       <c r="C308">
-        <v>3.720217621197218</v>
+        <v>3.493669519483381</v>
       </c>
       <c r="D308">
-        <v>2.708668066084279</v>
+        <v>2.353315612414395</v>
       </c>
       <c r="E308">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5630,16 +5630,16 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>4.09745254394941</v>
+        <v>3.491422075736414</v>
       </c>
       <c r="C309">
-        <v>3.711632668969303</v>
+        <v>3.150505304547697</v>
       </c>
       <c r="D309">
-        <v>2.559120947958292</v>
+        <v>1.598186362309245</v>
       </c>
       <c r="E309">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5647,16 +5647,16 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>3.871201205334795</v>
+        <v>3.460542141949642</v>
       </c>
       <c r="C310">
-        <v>3.670833309080397</v>
+        <v>3.011965575158587</v>
       </c>
       <c r="D310">
-        <v>3.010330470161485</v>
+        <v>2.482889379628402</v>
       </c>
       <c r="E310">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5664,16 +5664,16 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>3.829071285721719</v>
+        <v>3.075003663348382</v>
       </c>
       <c r="C311">
-        <v>3.544916637425842</v>
+        <v>2.761838231186652</v>
       </c>
       <c r="D311">
-        <v>2.912026755470352</v>
+        <v>2.857644070940259</v>
       </c>
       <c r="E311">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5681,16 +5681,16 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>3.73553180092931</v>
+        <v>3.590788424398549</v>
       </c>
       <c r="C312">
-        <v>4.047844882453465</v>
+        <v>3.218141095691934</v>
       </c>
       <c r="D312">
-        <v>2.783129556679728</v>
+        <v>1.81057541364753</v>
       </c>
       <c r="E312">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5698,16 +5698,16 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>3.797841693962961</v>
+        <v>3.145210627694973</v>
       </c>
       <c r="C313">
-        <v>3.845590170420024</v>
+        <v>3.133181301818226</v>
       </c>
       <c r="D313">
-        <v>3.296519421309204</v>
+        <v>2.717222633455306</v>
       </c>
       <c r="E313">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5715,16 +5715,16 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>3.899380264028887</v>
+        <v>3.264555744794554</v>
       </c>
       <c r="C314">
-        <v>3.990453434895558</v>
+        <v>3.542508324149242</v>
       </c>
       <c r="D314">
-        <v>2.801318061652135</v>
+        <v>3.388104939658369</v>
       </c>
       <c r="E314">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5732,16 +5732,16 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>3.94010273525356</v>
+        <v>3.280518873475435</v>
       </c>
       <c r="C315">
-        <v>3.969367966119061</v>
+        <v>3.515684155121866</v>
       </c>
       <c r="D315">
-        <v>2.937015477883253</v>
+        <v>3.315463284920072</v>
       </c>
       <c r="E315">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5749,16 +5749,16 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>4.078990658445935</v>
+        <v>3.236938604569376</v>
       </c>
       <c r="C316">
-        <v>3.200763215656041</v>
+        <v>3.716731845245092</v>
       </c>
       <c r="D316">
-        <v>2.054311257143711</v>
+        <v>2.995953577139711</v>
       </c>
       <c r="E316">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5766,16 +5766,16 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>3.902041637505234</v>
+        <v>2.459428007739967</v>
       </c>
       <c r="C317">
-        <v>3.680013355423023</v>
+        <v>3.200821825515157</v>
       </c>
       <c r="D317">
-        <v>2.674273821933717</v>
-      </c>
-      <c r="E317">
-        <v>268</v>
+        <v>3.57444089406488</v>
+      </c>
+      <c r="E317" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5783,16 +5783,16 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>3.80326872066706</v>
+        <v>3.453093303976734</v>
       </c>
       <c r="C318">
-        <v>3.791462752379347</v>
+        <v>3.93566532153852</v>
       </c>
       <c r="D318">
-        <v>3.291076002833067</v>
+        <v>3.547694944777199</v>
       </c>
       <c r="E318">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5800,16 +5800,16 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>4.046521833995535</v>
+        <v>1.042787648358862</v>
       </c>
       <c r="C319">
-        <v>3.851062569210208</v>
+        <v>3.68160170513435</v>
       </c>
       <c r="D319">
-        <v>3.369957774456486</v>
-      </c>
-      <c r="E319">
-        <v>270</v>
+        <v>2.945521886632871</v>
+      </c>
+      <c r="E319" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5817,16 +5817,16 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>3.871908584493527</v>
+        <v>3.457326363355242</v>
       </c>
       <c r="C320">
-        <v>3.849088959033558</v>
+        <v>3.605384191357296</v>
       </c>
       <c r="D320">
-        <v>3.267741324538075</v>
+        <v>3.044535468905617</v>
       </c>
       <c r="E320">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5834,16 +5834,16 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>4.070240341749932</v>
+        <v>3.332790175387435</v>
       </c>
       <c r="C321">
-        <v>3.055179177271926</v>
+        <v>3.967442655649307</v>
       </c>
       <c r="D321">
-        <v>2.379958290370126</v>
+        <v>3.63393292457525</v>
       </c>
       <c r="E321">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5851,16 +5851,16 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>4.18445086130481</v>
+        <v>3.022740964023301</v>
       </c>
       <c r="C322">
-        <v>3.911819492279974</v>
+        <v>3.768412016978815</v>
       </c>
       <c r="D322">
-        <v>2.637704251013741</v>
+        <v>3.065461004157334</v>
       </c>
       <c r="E322">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5868,16 +5868,16 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>4.115672769587108</v>
+        <v>3.358829522427802</v>
       </c>
       <c r="C323">
-        <v>3.780865096646767</v>
+        <v>3.980829272928522</v>
       </c>
       <c r="D323">
-        <v>2.227308998362351</v>
+        <v>2.665620514626224</v>
       </c>
       <c r="E323">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5885,16 +5885,16 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>4.141556498294228</v>
+        <v>3.447059427804152</v>
       </c>
       <c r="C324">
-        <v>4.018269042411498</v>
+        <v>4.180374401547482</v>
       </c>
       <c r="D324">
-        <v>2.602929193227522</v>
+        <v>2.809674164570374</v>
       </c>
       <c r="E324">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5902,16 +5902,16 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>4.110135841167832</v>
+        <v>2.965810177471632</v>
       </c>
       <c r="C325">
-        <v>3.807584968649633</v>
+        <v>3.715915473237943</v>
       </c>
       <c r="D325">
-        <v>2.275376717735034</v>
+        <v>2.526425182622589</v>
       </c>
       <c r="E325">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5919,16 +5919,16 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>4.139122411441146</v>
+        <v>1.975289570590598</v>
       </c>
       <c r="C326">
-        <v>4.075014766836913</v>
+        <v>3.280199915446928</v>
       </c>
       <c r="D326">
-        <v>2.624302445237673</v>
-      </c>
-      <c r="E326">
-        <v>277</v>
+        <v>2.785654718018894</v>
+      </c>
+      <c r="E326" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5936,16 +5936,16 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>4.086591560878628</v>
+        <v>3.200265601822578</v>
       </c>
       <c r="C327">
-        <v>4.06174572741758</v>
+        <v>3.777522347484619</v>
       </c>
       <c r="D327">
-        <v>2.671441823962719</v>
+        <v>2.693348531077026</v>
       </c>
       <c r="E327">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5953,16 +5953,16 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>3.984072715428022</v>
+        <v>3.657087256461311</v>
       </c>
       <c r="C328">
-        <v>3.302175989493346</v>
+        <v>2.389111773086578</v>
       </c>
       <c r="D328">
-        <v>2.868833611085463</v>
+        <v>2.150477263308305</v>
       </c>
       <c r="E328">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5970,16 +5970,16 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>3.990591639055631</v>
+        <v>3.599834845694832</v>
       </c>
       <c r="C329">
-        <v>3.371125247843828</v>
+        <v>3.636538623942364</v>
       </c>
       <c r="D329">
-        <v>1.927925327310306</v>
+        <v>1.670355367746556</v>
       </c>
       <c r="E329">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5987,16 +5987,16 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>4.135689690835705</v>
+        <v>4.072251369490011</v>
       </c>
       <c r="C330">
-        <v>4.03746147275014</v>
+        <v>1.979292606800424</v>
       </c>
       <c r="D330">
-        <v>2.601931870126532</v>
-      </c>
-      <c r="E330">
-        <v>281</v>
+        <v>2.540827036917361</v>
+      </c>
+      <c r="E330" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6004,16 +6004,16 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>4.00835707326902</v>
+        <v>4.033342103318653</v>
       </c>
       <c r="C331">
-        <v>2.995323781883164</v>
+        <v>2.831224550347658</v>
       </c>
       <c r="D331">
-        <v>2.65212105989658</v>
+        <v>2.454886808749194</v>
       </c>
       <c r="E331">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6021,16 +6021,16 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>3.981927021303074</v>
+        <v>4.103030290465314</v>
       </c>
       <c r="C332">
-        <v>3.326869473867455</v>
+        <v>2.412315178075598</v>
       </c>
       <c r="D332">
-        <v>2.045372267150269</v>
+        <v>2.513176188086404</v>
       </c>
       <c r="E332">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6038,16 +6038,16 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>4.072049422442242</v>
+        <v>3.901750661809623</v>
       </c>
       <c r="C333">
-        <v>2.757867356041313</v>
+        <v>3.873498323618465</v>
       </c>
       <c r="D333">
-        <v>3.044074899096218</v>
+        <v>3.24970696603423</v>
       </c>
       <c r="E333">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6055,16 +6055,16 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>3.95086059102894</v>
+        <v>4.062361074001337</v>
       </c>
       <c r="C334">
-        <v>3.386440904123242</v>
+        <v>3.462838328583132</v>
       </c>
       <c r="D334">
-        <v>3.18927840892693</v>
+        <v>3.001245426195257</v>
       </c>
       <c r="E334">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6072,16 +6072,16 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>4.111481258931673</v>
+        <v>4.029762843524763</v>
       </c>
       <c r="C335">
-        <v>2.497671357208638</v>
+        <v>2.833476408183775</v>
       </c>
       <c r="D335">
-        <v>2.968442533201391</v>
+        <v>2.444690281376379</v>
       </c>
       <c r="E335">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6089,16 +6089,16 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>3.955502247009709</v>
+        <v>4.059312789971279</v>
       </c>
       <c r="C336">
-        <v>3.615039137749832</v>
+        <v>3.807514472300713</v>
       </c>
       <c r="D336">
-        <v>3.37227623265457</v>
+        <v>2.970986587079151</v>
       </c>
       <c r="E336">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6106,16 +6106,16 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>2.424423018353602</v>
+        <v>4.384398079629285</v>
       </c>
       <c r="C337">
-        <v>3.404221018798567</v>
+        <v>3.407530930923514</v>
       </c>
       <c r="D337">
-        <v>3.349256058950867</v>
-      </c>
-      <c r="E337" t="s">
-        <v>4</v>
+        <v>3.489554639177134</v>
+      </c>
+      <c r="E337">
+        <v>299</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6123,16 +6123,16 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>3.971615913222293</v>
+        <v>4.537599032196153</v>
       </c>
       <c r="C338">
-        <v>3.046490935483095</v>
+        <v>3.269625044022835</v>
       </c>
       <c r="D338">
-        <v>3.302484656195465</v>
+        <v>3.407253408896659</v>
       </c>
       <c r="E338">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6140,16 +6140,16 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>3.644947611721673</v>
+        <v>4.447187180702283</v>
       </c>
       <c r="C339">
-        <v>3.210194388906952</v>
+        <v>3.598104572427121</v>
       </c>
       <c r="D339">
-        <v>3.241891996246946</v>
+        <v>3.474894669338271</v>
       </c>
       <c r="E339">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6157,16 +6157,16 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>3.898066952244343</v>
+        <v>2.468035737727445</v>
       </c>
       <c r="C340">
-        <v>2.898318434922236</v>
+        <v>2.53721933143004</v>
       </c>
       <c r="D340">
-        <v>3.069711932134574</v>
-      </c>
-      <c r="E340">
-        <v>290</v>
+        <v>3.546942916942194</v>
+      </c>
+      <c r="E340" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6174,16 +6174,16 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>3.855913812641056</v>
+        <v>2.100260771104883</v>
       </c>
       <c r="C341">
-        <v>3.706685838373446</v>
+        <v>3.55784676196213</v>
       </c>
       <c r="D341">
-        <v>2.884698489625334</v>
-      </c>
-      <c r="E341">
-        <v>291</v>
+        <v>2.924852612266441</v>
+      </c>
+      <c r="E341" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6191,16 +6191,16 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>3.425455222252932</v>
+        <v>2.030640669343051</v>
       </c>
       <c r="C342">
-        <v>3.401285271004636</v>
+        <v>3.363658811954196</v>
       </c>
       <c r="D342">
-        <v>3.245418112660055</v>
-      </c>
-      <c r="E342">
-        <v>292</v>
+        <v>3.035052818516893</v>
+      </c>
+      <c r="E342" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6208,16 +6208,16 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>4.184666893375256</v>
+        <v>4.049993016468196</v>
       </c>
       <c r="C343">
-        <v>2.936419459560362</v>
+        <v>3.540664229983365</v>
       </c>
       <c r="D343">
-        <v>2.537101098473356</v>
+        <v>2.955333994438163</v>
       </c>
       <c r="E343">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6225,16 +6225,16 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>4.903238261215066</v>
+        <v>4.122690559414386</v>
       </c>
       <c r="C344">
-        <v>3.82296504155507</v>
+        <v>4.005639694852349</v>
       </c>
       <c r="D344">
-        <v>3.326717122438823</v>
-      </c>
-      <c r="E344" t="s">
-        <v>4</v>
+        <v>1.696217691313145</v>
+      </c>
+      <c r="E344">
+        <v>303</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6242,16 +6242,16 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>4.884414878840716</v>
+        <v>4.190056154961759</v>
       </c>
       <c r="C345">
-        <v>3.868852645175118</v>
+        <v>3.518406120118554</v>
       </c>
       <c r="D345">
-        <v>3.271397450147209</v>
-      </c>
-      <c r="E345" t="s">
-        <v>4</v>
+        <v>1.353396010809203</v>
+      </c>
+      <c r="E345">
+        <v>304</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6259,16 +6259,16 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>4.781083667443572</v>
+        <v>3.728562646550918</v>
       </c>
       <c r="C346">
-        <v>3.394874404429558</v>
+        <v>3.462161136102506</v>
       </c>
       <c r="D346">
-        <v>3.681582387935135</v>
-      </c>
-      <c r="E346" t="s">
-        <v>4</v>
+        <v>2.002049530581139</v>
+      </c>
+      <c r="E346">
+        <v>305</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6276,16 +6276,16 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>4.905545545880488</v>
+        <v>3.608614169632358</v>
       </c>
       <c r="C347">
-        <v>3.934010910228134</v>
+        <v>3.488748243012547</v>
       </c>
       <c r="D347">
-        <v>3.405594989695988</v>
-      </c>
-      <c r="E347" t="s">
-        <v>4</v>
+        <v>2.240858404960345</v>
+      </c>
+      <c r="E347">
+        <v>306</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6293,16 +6293,16 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>4.144140508432032</v>
+        <v>3.661899754407441</v>
       </c>
       <c r="C348">
-        <v>3.303881263054095</v>
+        <v>3.374160577879122</v>
       </c>
       <c r="D348">
-        <v>1.996521638456754</v>
+        <v>1.978738632824527</v>
       </c>
       <c r="E348">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6310,16 +6310,16 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>4.082704343020745</v>
+        <v>3.562424456892941</v>
       </c>
       <c r="C349">
-        <v>3.354623393211039</v>
+        <v>3.868036177349158</v>
       </c>
       <c r="D349">
-        <v>2.219344206919163</v>
+        <v>2.303525420896377</v>
       </c>
       <c r="E349">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6327,16 +6327,16 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>3.81665600418914</v>
+        <v>3.495724772634476</v>
       </c>
       <c r="C350">
-        <v>3.137291226871971</v>
+        <v>4.054805619608814</v>
       </c>
       <c r="D350">
-        <v>3.019545352573401</v>
+        <v>2.289501180889084</v>
       </c>
       <c r="E350">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6344,16 +6344,16 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>4.192826404822567</v>
+        <v>3.554365280918038</v>
       </c>
       <c r="C351">
-        <v>4.023859697325094</v>
+        <v>3.290327406765239</v>
       </c>
       <c r="D351">
-        <v>3.315001213082072</v>
+        <v>2.557313196066112</v>
       </c>
       <c r="E351">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6361,16 +6361,16 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>3.849797502786187</v>
+        <v>3.825159572516633</v>
       </c>
       <c r="C352">
-        <v>3.522019827278507</v>
+        <v>3.324150093610483</v>
       </c>
       <c r="D352">
-        <v>3.240642101020405</v>
+        <v>2.12446899023356</v>
       </c>
       <c r="E352">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6378,16 +6378,16 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>3.923231955771966</v>
+        <v>3.814728897931023</v>
       </c>
       <c r="C353">
-        <v>3.424115709901824</v>
+        <v>3.060133072174642</v>
       </c>
       <c r="D353">
-        <v>2.985389372775487</v>
+        <v>2.274291811711569</v>
       </c>
       <c r="E353">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6395,16 +6395,16 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>3.956097874072616</v>
+        <v>3.637032735591047</v>
       </c>
       <c r="C354">
-        <v>3.904528270240442</v>
+        <v>3.358717884164374</v>
       </c>
       <c r="D354">
-        <v>2.721181142878183</v>
+        <v>2.014386007169145</v>
       </c>
       <c r="E354">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6412,16 +6412,16 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>3.746520675912035</v>
+        <v>3.61411963525704</v>
       </c>
       <c r="C355">
-        <v>2.839247244442396</v>
+        <v>3.945434662210729</v>
       </c>
       <c r="D355">
-        <v>3.106219229054573</v>
+        <v>2.102885424168668</v>
       </c>
       <c r="E355">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6429,16 +6429,16 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>3.88941366418282</v>
+        <v>4.357098694099328</v>
       </c>
       <c r="C356">
-        <v>3.77678175735283</v>
+        <v>3.700490563463844</v>
       </c>
       <c r="D356">
-        <v>3.089524516322826</v>
+        <v>3.335900278074392</v>
       </c>
       <c r="E356">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6446,16 +6446,16 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>4.369797640904453</v>
+        <v>4.42342209732282</v>
       </c>
       <c r="C357">
-        <v>3.749058862301753</v>
+        <v>3.036628685408913</v>
       </c>
       <c r="D357">
-        <v>3.276477009408469</v>
+        <v>3.330011344636664</v>
       </c>
       <c r="E357">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6463,16 +6463,16 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>4.454865863883903</v>
+        <v>4.216250489198</v>
       </c>
       <c r="C358">
-        <v>3.741942816670023</v>
+        <v>3.318241993638958</v>
       </c>
       <c r="D358">
-        <v>2.906753559460443</v>
+        <v>3.376618221634513</v>
       </c>
       <c r="E358">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6480,16 +6480,16 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>4.38948950502778</v>
+        <v>3.568391384247672</v>
       </c>
       <c r="C359">
-        <v>3.78940693896427</v>
+        <v>2.683763213827371</v>
       </c>
       <c r="D359">
-        <v>3.276881894078587</v>
+        <v>1.545711568119169</v>
       </c>
       <c r="E359">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6497,16 +6497,16 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>4.514059047627667</v>
+        <v>3.46579821604676</v>
       </c>
       <c r="C360">
-        <v>3.520174704678239</v>
+        <v>3.575831982324841</v>
       </c>
       <c r="D360">
-        <v>2.99255735853672</v>
+        <v>2.939252303762983</v>
       </c>
       <c r="E360">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6514,16 +6514,16 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>4.505633067712766</v>
+        <v>3.479457216889341</v>
       </c>
       <c r="C361">
-        <v>3.508994823475459</v>
+        <v>3.686862820395489</v>
       </c>
       <c r="D361">
-        <v>2.987311915312637</v>
+        <v>2.421732653547859</v>
       </c>
       <c r="E361">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6531,16 +6531,16 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>4.482517358903149</v>
+        <v>2.799695950109294</v>
       </c>
       <c r="C362">
-        <v>3.689102174871126</v>
+        <v>3.517241286153444</v>
       </c>
       <c r="D362">
-        <v>2.998642734689063</v>
+        <v>2.298131733145594</v>
       </c>
       <c r="E362">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6548,16 +6548,16 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>3.909985014915541</v>
+        <v>3.339978769764269</v>
       </c>
       <c r="C363">
-        <v>3.63928084237245</v>
+        <v>3.713232331901029</v>
       </c>
       <c r="D363">
-        <v>2.830728914537863</v>
+        <v>3.163574233020645</v>
       </c>
       <c r="E363">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6565,16 +6565,16 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>4.062792075641302</v>
+        <v>3.419479046030521</v>
       </c>
       <c r="C364">
-        <v>3.545010368883354</v>
+        <v>3.920256544758591</v>
       </c>
       <c r="D364">
-        <v>2.567638019500738</v>
+        <v>2.723830873811111</v>
       </c>
       <c r="E364">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6582,16 +6582,16 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>4.062202908170529</v>
+        <v>3.350623243613466</v>
       </c>
       <c r="C365">
-        <v>3.511141207180808</v>
+        <v>3.159473636645062</v>
       </c>
       <c r="D365">
-        <v>2.628059099731384</v>
+        <v>3.19984373539529</v>
       </c>
       <c r="E365">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6599,16 +6599,16 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>3.904349532188216</v>
+        <v>3.543749795687776</v>
       </c>
       <c r="C366">
-        <v>3.306331935614064</v>
+        <v>3.620528050498845</v>
       </c>
       <c r="D366">
-        <v>2.560783932996127</v>
+        <v>3.565950231684658</v>
       </c>
       <c r="E366">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6616,16 +6616,16 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>4.053386885226978</v>
+        <v>3.4855939771391</v>
       </c>
       <c r="C367">
-        <v>3.563467558428127</v>
+        <v>3.366034880081084</v>
       </c>
       <c r="D367">
-        <v>2.658702991481654</v>
+        <v>1.730363845519346</v>
       </c>
       <c r="E367">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6633,16 +6633,16 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>4.000675440529783</v>
+        <v>2.817401081623867</v>
       </c>
       <c r="C368">
-        <v>3.664820819293487</v>
+        <v>3.544063947173224</v>
       </c>
       <c r="D368">
-        <v>2.413188564985324</v>
+        <v>3.271529670715783</v>
       </c>
       <c r="E368">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6650,16 +6650,16 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>3.854561234596554</v>
+        <v>4.437643215784137</v>
       </c>
       <c r="C369">
-        <v>3.787841755163721</v>
+        <v>3.786707887784374</v>
       </c>
       <c r="D369">
-        <v>2.974328012464996</v>
+        <v>2.308612879732036</v>
       </c>
       <c r="E369">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6667,16 +6667,16 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>3.956836133784426</v>
+        <v>4.383394953412607</v>
       </c>
       <c r="C370">
-        <v>3.342275339047708</v>
+        <v>3.137113552889207</v>
       </c>
       <c r="D370">
-        <v>3.57775643890484</v>
+        <v>2.089516301171643</v>
       </c>
       <c r="E370">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6684,16 +6684,16 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>3.975557145142771</v>
+        <v>3.128975434547163</v>
       </c>
       <c r="C371">
-        <v>3.492238507281513</v>
+        <v>3.448672744598109</v>
       </c>
       <c r="D371">
-        <v>3.293115772593866</v>
+        <v>3.153243586779228</v>
       </c>
       <c r="E371">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6701,16 +6701,16 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>4.4429329073272</v>
+        <v>3.379668162364193</v>
       </c>
       <c r="C372">
-        <v>3.485658809399296</v>
+        <v>3.136843279066334</v>
       </c>
       <c r="D372">
-        <v>2.920878470540878</v>
+        <v>2.130222385938438</v>
       </c>
       <c r="E372">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6718,16 +6718,16 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>3.814817703788946</v>
+        <v>3.568037589516472</v>
       </c>
       <c r="C373">
-        <v>3.766395253866472</v>
+        <v>1.941147503602816</v>
       </c>
       <c r="D373">
-        <v>2.707003366915297</v>
-      </c>
-      <c r="E373">
-        <v>319</v>
+        <v>2.27357154994457</v>
+      </c>
+      <c r="E373" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6735,16 +6735,16 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>3.772887713768507</v>
+        <v>3.414282504091489</v>
       </c>
       <c r="C374">
-        <v>3.066189141555079</v>
+        <v>3.391461629411765</v>
       </c>
       <c r="D374">
-        <v>3.343613433381098</v>
+        <v>1.801083089180105</v>
       </c>
       <c r="E374">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6752,16 +6752,16 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>4.065647187524411</v>
+        <v>3.584989401363326</v>
       </c>
       <c r="C375">
-        <v>3.451186724666769</v>
+        <v>3.208951963815321</v>
       </c>
       <c r="D375">
-        <v>2.51002433406398</v>
+        <v>1.879701609812795</v>
       </c>
       <c r="E375">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6769,16 +6769,16 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>3.974139919962378</v>
+        <v>4.477239068871497</v>
       </c>
       <c r="C376">
-        <v>3.562625247813039</v>
+        <v>3.211544445709142</v>
       </c>
       <c r="D376">
-        <v>3.47893415905523</v>
+        <v>3.492963120717416</v>
       </c>
       <c r="E376">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6786,16 +6786,16 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>3.845176861586515</v>
+        <v>4.330477846003768</v>
       </c>
       <c r="C377">
-        <v>3.748574933313416</v>
+        <v>3.398842079066074</v>
       </c>
       <c r="D377">
-        <v>2.93552631853201</v>
+        <v>2.411093506106435</v>
       </c>
       <c r="E377">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6803,16 +6803,16 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>3.935134642706991</v>
+        <v>3.797014521281943</v>
       </c>
       <c r="C378">
-        <v>3.188519319143133</v>
+        <v>3.680736755430238</v>
       </c>
       <c r="D378">
-        <v>3.11337997584742</v>
+        <v>2.943957532174445</v>
       </c>
       <c r="E378">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6820,16 +6820,16 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>4.154386495100318</v>
+        <v>3.260198427347035</v>
       </c>
       <c r="C379">
-        <v>3.935351208278479</v>
+        <v>3.637251903908635</v>
       </c>
       <c r="D379">
-        <v>2.179668663824759</v>
+        <v>3.349327796970951</v>
       </c>
       <c r="E379">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6837,16 +6837,16 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>3.415310730558555</v>
+        <v>3.284159135436635</v>
       </c>
       <c r="C380">
-        <v>2.790671309277946</v>
+        <v>3.12039268356263</v>
       </c>
       <c r="D380">
-        <v>2.754140746334528</v>
-      </c>
-      <c r="E380" t="s">
-        <v>4</v>
+        <v>3.135859004811289</v>
+      </c>
+      <c r="E380">
+        <v>338</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6854,16 +6854,16 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>3.918757689877556</v>
+        <v>3.162312046550438</v>
       </c>
       <c r="C381">
-        <v>3.754916591730724</v>
+        <v>3.223276847309099</v>
       </c>
       <c r="D381">
-        <v>2.718838912207022</v>
+        <v>2.959755699854863</v>
       </c>
       <c r="E381">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6871,16 +6871,16 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>4.082763609830583</v>
+        <v>3.106382842270087</v>
       </c>
       <c r="C382">
-        <v>3.384325427323721</v>
+        <v>2.986587535272887</v>
       </c>
       <c r="D382">
-        <v>2.300731120325393</v>
+        <v>2.889698961761692</v>
       </c>
       <c r="E382">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6888,16 +6888,16 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>4.002081717437314</v>
+        <v>3.811147627762979</v>
       </c>
       <c r="C383">
-        <v>3.71615493958714</v>
+        <v>4.112794786086988</v>
       </c>
       <c r="D383">
-        <v>2.696459902080584</v>
+        <v>2.452393848046697</v>
       </c>
       <c r="E383">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6905,16 +6905,16 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>3.826145965700416</v>
+        <v>3.783060167499993</v>
       </c>
       <c r="C384">
-        <v>3.449082407916567</v>
+        <v>3.308290884691035</v>
       </c>
       <c r="D384">
-        <v>2.531296781121916</v>
+        <v>3.106923016692503</v>
       </c>
       <c r="E384">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6922,16 +6922,16 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>3.887107873777325</v>
+        <v>3.247679746170804</v>
       </c>
       <c r="C385">
-        <v>3.757074201624835</v>
+        <v>3.761302200282754</v>
       </c>
       <c r="D385">
-        <v>2.960649813896501</v>
+        <v>3.299924554094674</v>
       </c>
       <c r="E385">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6939,16 +6939,16 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>4.160003733939951</v>
+        <v>3.678080718296048</v>
       </c>
       <c r="C386">
-        <v>3.557300944263795</v>
+        <v>3.106004457705477</v>
       </c>
       <c r="D386">
-        <v>2.538867844296238</v>
+        <v>3.219394630067153</v>
       </c>
       <c r="E386">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6956,16 +6956,16 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>4.164071199395094</v>
+        <v>3.505638817432856</v>
       </c>
       <c r="C387">
-        <v>3.929385128858557</v>
+        <v>3.52057034973347</v>
       </c>
       <c r="D387">
-        <v>2.937978152465834</v>
+        <v>1.08934048329807</v>
       </c>
       <c r="E387">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6973,16 +6973,16 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>4.209763553303504</v>
+        <v>3.703342565887244</v>
       </c>
       <c r="C388">
-        <v>3.599332302098833</v>
+        <v>3.093546633592585</v>
       </c>
       <c r="D388">
-        <v>3.458081941638304</v>
+        <v>3.311816972926595</v>
       </c>
       <c r="E388">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -6990,16 +6990,16 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>4.245499419450606</v>
+        <v>3.368508608900374</v>
       </c>
       <c r="C389">
-        <v>3.675228050646851</v>
+        <v>3.69760526627628</v>
       </c>
       <c r="D389">
-        <v>3.457938728576061</v>
+        <v>1.376919051042203</v>
       </c>
       <c r="E389">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7007,16 +7007,16 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>4.322421907364458</v>
+        <v>2.081820328589098</v>
       </c>
       <c r="C390">
-        <v>3.314077621797743</v>
+        <v>4.019365129278261</v>
       </c>
       <c r="D390">
-        <v>3.85046155378901</v>
-      </c>
-      <c r="E390">
-        <v>335</v>
+        <v>3.346633541896033</v>
+      </c>
+      <c r="E390" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7024,16 +7024,16 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>3.474839585833642</v>
+        <v>3.516850414163637</v>
       </c>
       <c r="C391">
-        <v>3.144928405273281</v>
+        <v>2.814695691678932</v>
       </c>
       <c r="D391">
-        <v>3.380997820592143</v>
+        <v>3.261113940868585</v>
       </c>
       <c r="E391">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7041,16 +7041,16 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>3.571700379077148</v>
+        <v>3.446967876370574</v>
       </c>
       <c r="C392">
-        <v>3.818083741981052</v>
+        <v>3.582290110067768</v>
       </c>
       <c r="D392">
-        <v>3.168775637647239</v>
+        <v>3.143215588984158</v>
       </c>
       <c r="E392">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7058,16 +7058,16 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>4.067386043841495</v>
+        <v>3.465099220816789</v>
       </c>
       <c r="C393">
-        <v>3.484164264859088</v>
+        <v>3.898175848994682</v>
       </c>
       <c r="D393">
-        <v>2.398460055456381</v>
+        <v>2.515565395361388</v>
       </c>
       <c r="E393">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7075,16 +7075,16 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>4.046614218942618</v>
+        <v>3.513358270163002</v>
       </c>
       <c r="C394">
-        <v>3.314250109575281</v>
+        <v>3.567934653296009</v>
       </c>
       <c r="D394">
-        <v>2.741645660604456</v>
+        <v>2.47455615834864</v>
       </c>
       <c r="E394">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7092,16 +7092,16 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>3.757283125529405</v>
+        <v>3.751349330965448</v>
       </c>
       <c r="C395">
-        <v>3.785105972818017</v>
+        <v>2.868835621982682</v>
       </c>
       <c r="D395">
-        <v>3.328603251232608</v>
+        <v>2.227099785172146</v>
       </c>
       <c r="E395">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7109,16 +7109,16 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>3.640391452413004</v>
+        <v>3.5659010644935</v>
       </c>
       <c r="C396">
-        <v>3.720965488919556</v>
+        <v>3.148353180723748</v>
       </c>
       <c r="D396">
-        <v>3.089901104689436</v>
-      </c>
-      <c r="E396">
-        <v>341</v>
+        <v>0</v>
+      </c>
+      <c r="E396" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7126,16 +7126,16 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>3.786823964631237</v>
+        <v>3.481813931015273</v>
       </c>
       <c r="C397">
-        <v>4.067459157017917</v>
+        <v>3.826752161016262</v>
       </c>
       <c r="D397">
-        <v>3.217773550080241</v>
+        <v>2.277175404364695</v>
       </c>
       <c r="E397">
-        <v>342</v>
+        <v>353</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7143,16 +7143,16 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>3.426119419041817</v>
+        <v>3.278404635456796</v>
       </c>
       <c r="C398">
-        <v>3.541752532861628</v>
+        <v>2.645523719902802</v>
       </c>
       <c r="D398">
-        <v>3.137471493894599</v>
+        <v>1.847359398035522</v>
       </c>
       <c r="E398">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7160,16 +7160,16 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>4.207705669991091</v>
+        <v>4.010784462862761</v>
       </c>
       <c r="C399">
-        <v>3.039855542499843</v>
+        <v>3.792539951438099</v>
       </c>
       <c r="D399">
-        <v>2.918433606683673</v>
+        <v>3.481173997566097</v>
       </c>
       <c r="E399">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7177,16 +7177,16 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>3.974323656460943</v>
+        <v>3.462265619784568</v>
       </c>
       <c r="C400">
-        <v>2.626845250536584</v>
+        <v>3.168633040634446</v>
       </c>
       <c r="D400">
-        <v>2.800901886869039</v>
+        <v>3.068064168327078</v>
       </c>
       <c r="E400">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7194,16 +7194,16 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>3.968529815766731</v>
+        <v>2.800956741813578</v>
       </c>
       <c r="C401">
-        <v>3.644849427553349</v>
+        <v>3.159313909792778</v>
       </c>
       <c r="D401">
-        <v>3.180902472231073</v>
+        <v>2.986861457689224</v>
       </c>
       <c r="E401">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7211,16 +7211,16 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>3.740636160554432</v>
+        <v>3.62514897557585</v>
       </c>
       <c r="C402">
-        <v>3.683240841369415</v>
+        <v>3.682695807637563</v>
       </c>
       <c r="D402">
-        <v>2.889133570521429</v>
+        <v>2.641667418860982</v>
       </c>
       <c r="E402">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7228,16 +7228,16 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>3.955368538990585</v>
+        <v>3.689322243765121</v>
       </c>
       <c r="C403">
-        <v>3.177105970802482</v>
+        <v>3.77072287099169</v>
       </c>
       <c r="D403">
-        <v>2.54147210160741</v>
+        <v>2.123993257295341</v>
       </c>
       <c r="E403">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7245,16 +7245,16 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>3.410869210904746</v>
+        <v>3.93589208371468</v>
       </c>
       <c r="C404">
-        <v>3.227474714269504</v>
+        <v>3.907862137870735</v>
       </c>
       <c r="D404">
-        <v>2.918023734665129</v>
-      </c>
-      <c r="E404" t="s">
-        <v>4</v>
+        <v>2.072418551376206</v>
+      </c>
+      <c r="E404">
+        <v>360</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7262,645 +7262,16 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>3.600018704606641</v>
+        <v>3.934176959127931</v>
       </c>
       <c r="C405">
-        <v>3.582623561538269</v>
+        <v>3.891286385018663</v>
       </c>
       <c r="D405">
-        <v>3.292055556829295</v>
+        <v>2.190674877120843</v>
       </c>
       <c r="E405">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
-      <c r="A406" s="1">
-        <v>404</v>
-      </c>
-      <c r="B406">
-        <v>3.643335480443629</v>
-      </c>
-      <c r="C406">
-        <v>3.908951037325631</v>
-      </c>
-      <c r="D406">
-        <v>2.887180126609101</v>
-      </c>
-      <c r="E406">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
-      <c r="A407" s="1">
-        <v>405</v>
-      </c>
-      <c r="B407">
-        <v>4.010458296027694</v>
-      </c>
-      <c r="C407">
-        <v>3.31097393105816</v>
-      </c>
-      <c r="D407">
-        <v>2.47230431178621</v>
-      </c>
-      <c r="E407">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
-      <c r="A408" s="1">
-        <v>406</v>
-      </c>
-      <c r="B408">
-        <v>3.810358932557298</v>
-      </c>
-      <c r="C408">
-        <v>3.774203034403184</v>
-      </c>
-      <c r="D408">
-        <v>2.456211393429074</v>
-      </c>
-      <c r="E408">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
-      <c r="A409" s="1">
-        <v>407</v>
-      </c>
-      <c r="B409">
-        <v>3.79998976881685</v>
-      </c>
-      <c r="C409">
-        <v>3.782000839839418</v>
-      </c>
-      <c r="D409">
-        <v>2.654452816692672</v>
-      </c>
-      <c r="E409">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
-      <c r="A410" s="1">
-        <v>408</v>
-      </c>
-      <c r="B410">
-        <v>3.773023473648988</v>
-      </c>
-      <c r="C410">
-        <v>3.771307376340656</v>
-      </c>
-      <c r="D410">
-        <v>1.770481068681455</v>
-      </c>
-      <c r="E410">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
-      <c r="A411" s="1">
-        <v>409</v>
-      </c>
-      <c r="B411">
-        <v>3.810840363230437</v>
-      </c>
-      <c r="C411">
-        <v>3.474322708317121</v>
-      </c>
-      <c r="D411">
-        <v>2.959366684960698</v>
-      </c>
-      <c r="E411">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
-      <c r="A412" s="1">
-        <v>410</v>
-      </c>
-      <c r="B412">
-        <v>3.417648440427234</v>
-      </c>
-      <c r="C412">
-        <v>3.63978717404845</v>
-      </c>
-      <c r="D412">
-        <v>2.493241209479383</v>
-      </c>
-      <c r="E412" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
-      <c r="A413" s="1">
-        <v>411</v>
-      </c>
-      <c r="B413">
-        <v>4.039013148243926</v>
-      </c>
-      <c r="C413">
-        <v>3.632526241587103</v>
-      </c>
-      <c r="D413">
-        <v>2.450531716053473</v>
-      </c>
-      <c r="E413">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
-      <c r="A414" s="1">
-        <v>412</v>
-      </c>
-      <c r="B414">
-        <v>4.099041092336115</v>
-      </c>
-      <c r="C414">
-        <v>3.617371816151303</v>
-      </c>
-      <c r="D414">
-        <v>2.237136520769634</v>
-      </c>
-      <c r="E414">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="A415" s="1">
-        <v>413</v>
-      </c>
-      <c r="B415">
-        <v>3.961694857923084</v>
-      </c>
-      <c r="C415">
-        <v>3.50887187174628</v>
-      </c>
-      <c r="D415">
-        <v>2.3803291145568</v>
-      </c>
-      <c r="E415">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="A416" s="1">
-        <v>414</v>
-      </c>
-      <c r="B416">
-        <v>3.952270488662378</v>
-      </c>
-      <c r="C416">
-        <v>3.274048002820658</v>
-      </c>
-      <c r="D416">
-        <v>2.604200063721939</v>
-      </c>
-      <c r="E416">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
-      <c r="A417" s="1">
-        <v>415</v>
-      </c>
-      <c r="B417">
-        <v>3.995469090404936</v>
-      </c>
-      <c r="C417">
-        <v>3.057348931292762</v>
-      </c>
-      <c r="D417">
-        <v>2.612644542244139</v>
-      </c>
-      <c r="E417">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
-      <c r="A418" s="1">
-        <v>416</v>
-      </c>
-      <c r="B418">
-        <v>4.126100119477734</v>
-      </c>
-      <c r="C418">
-        <v>3.764385080460121</v>
-      </c>
-      <c r="D418">
-        <v>2.652518052600158</v>
-      </c>
-      <c r="E418">
         <v>361</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
-      <c r="A419" s="1">
-        <v>417</v>
-      </c>
-      <c r="B419">
-        <v>3.940533381261609</v>
-      </c>
-      <c r="C419">
-        <v>3.450179054342372</v>
-      </c>
-      <c r="D419">
-        <v>3.457646042647365</v>
-      </c>
-      <c r="E419">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
-      <c r="A420" s="1">
-        <v>418</v>
-      </c>
-      <c r="B420">
-        <v>3.887623873603025</v>
-      </c>
-      <c r="C420">
-        <v>3.104068023292962</v>
-      </c>
-      <c r="D420">
-        <v>2.711255464596132</v>
-      </c>
-      <c r="E420">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
-      <c r="A421" s="1">
-        <v>419</v>
-      </c>
-      <c r="B421">
-        <v>4.172740756288928</v>
-      </c>
-      <c r="C421">
-        <v>3.596177411114554</v>
-      </c>
-      <c r="D421">
-        <v>3.584621352347231</v>
-      </c>
-      <c r="E421">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
-      <c r="A422" s="1">
-        <v>420</v>
-      </c>
-      <c r="B422">
-        <v>4.228902887090906</v>
-      </c>
-      <c r="C422">
-        <v>3.561986998555787</v>
-      </c>
-      <c r="D422">
-        <v>3.521185402230846</v>
-      </c>
-      <c r="E422">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
-      <c r="A423" s="1">
-        <v>421</v>
-      </c>
-      <c r="B423">
-        <v>3.922912889387539</v>
-      </c>
-      <c r="C423">
-        <v>3.229208595694795</v>
-      </c>
-      <c r="D423">
-        <v>2.960577622090152</v>
-      </c>
-      <c r="E423">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
-      <c r="A424" s="1">
-        <v>422</v>
-      </c>
-      <c r="B424">
-        <v>4.250435914919723</v>
-      </c>
-      <c r="C424">
-        <v>3.635987406838792</v>
-      </c>
-      <c r="D424">
-        <v>2.51078629201003</v>
-      </c>
-      <c r="E424">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
-      <c r="A425" s="1">
-        <v>423</v>
-      </c>
-      <c r="B425">
-        <v>4.100769264833064</v>
-      </c>
-      <c r="C425">
-        <v>2.607375008351125</v>
-      </c>
-      <c r="D425">
-        <v>3.043722515890736</v>
-      </c>
-      <c r="E425">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
-      <c r="A426" s="1">
-        <v>424</v>
-      </c>
-      <c r="B426">
-        <v>3.997271138566257</v>
-      </c>
-      <c r="C426">
-        <v>3.007945290426425</v>
-      </c>
-      <c r="D426">
-        <v>3.032078273423885</v>
-      </c>
-      <c r="E426">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
-      <c r="A427" s="1">
-        <v>425</v>
-      </c>
-      <c r="B427">
-        <v>4.327925499549231</v>
-      </c>
-      <c r="C427">
-        <v>3.630899161635361</v>
-      </c>
-      <c r="D427">
-        <v>2.001078100055626</v>
-      </c>
-      <c r="E427">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
-      <c r="A428" s="1">
-        <v>426</v>
-      </c>
-      <c r="B428">
-        <v>4.238625643131612</v>
-      </c>
-      <c r="C428">
-        <v>3.429741548533384</v>
-      </c>
-      <c r="D428">
-        <v>2.579227419115186</v>
-      </c>
-      <c r="E428">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
-      <c r="A429" s="1">
-        <v>427</v>
-      </c>
-      <c r="B429">
-        <v>4.156038119624394</v>
-      </c>
-      <c r="C429">
-        <v>3.306568715161422</v>
-      </c>
-      <c r="D429">
-        <v>3.721473538648751</v>
-      </c>
-      <c r="E429">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
-      <c r="A430" s="1">
-        <v>428</v>
-      </c>
-      <c r="B430">
-        <v>3.93494299393321</v>
-      </c>
-      <c r="C430">
-        <v>3.304196778124258</v>
-      </c>
-      <c r="D430">
-        <v>3.122446244248045</v>
-      </c>
-      <c r="E430">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
-      <c r="A431" s="1">
-        <v>429</v>
-      </c>
-      <c r="B431">
-        <v>3.771273113511083</v>
-      </c>
-      <c r="C431">
-        <v>3.611368411111258</v>
-      </c>
-      <c r="D431">
-        <v>3.118356485045921</v>
-      </c>
-      <c r="E431">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
-      <c r="A432" s="1">
-        <v>430</v>
-      </c>
-      <c r="B432">
-        <v>3.959631907871336</v>
-      </c>
-      <c r="C432">
-        <v>3.244137013800208</v>
-      </c>
-      <c r="D432">
-        <v>2.050763977493539</v>
-      </c>
-      <c r="E432">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
-      <c r="A433" s="1">
-        <v>431</v>
-      </c>
-      <c r="B433">
-        <v>3.938348565661813</v>
-      </c>
-      <c r="C433">
-        <v>3.446991661625215</v>
-      </c>
-      <c r="D433">
-        <v>2.096549786871132</v>
-      </c>
-      <c r="E433">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
-      <c r="A434" s="1">
-        <v>432</v>
-      </c>
-      <c r="B434">
-        <v>4.173123199992928</v>
-      </c>
-      <c r="C434">
-        <v>3.970407065938577</v>
-      </c>
-      <c r="D434">
-        <v>2.793807999451205</v>
-      </c>
-      <c r="E434">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
-      <c r="A435" s="1">
-        <v>433</v>
-      </c>
-      <c r="B435">
-        <v>4.135009566845739</v>
-      </c>
-      <c r="C435">
-        <v>3.93107806753233</v>
-      </c>
-      <c r="D435">
-        <v>2.671621566536384</v>
-      </c>
-      <c r="E435">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
-      <c r="A436" s="1">
-        <v>434</v>
-      </c>
-      <c r="B436">
-        <v>3.878394314294142</v>
-      </c>
-      <c r="C436">
-        <v>3.330113758349868</v>
-      </c>
-      <c r="D436">
-        <v>3.170747395237894</v>
-      </c>
-      <c r="E436">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
-      <c r="A437" s="1">
-        <v>435</v>
-      </c>
-      <c r="B437">
-        <v>3.745362288093292</v>
-      </c>
-      <c r="C437">
-        <v>3.29109098146668</v>
-      </c>
-      <c r="D437">
-        <v>3.045627196537054</v>
-      </c>
-      <c r="E437">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
-      <c r="A438" s="1">
-        <v>436</v>
-      </c>
-      <c r="B438">
-        <v>3.773720169322937</v>
-      </c>
-      <c r="C438">
-        <v>3.250885481951192</v>
-      </c>
-      <c r="D438">
-        <v>2.926829174901456</v>
-      </c>
-      <c r="E438">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
-      <c r="A439" s="1">
-        <v>437</v>
-      </c>
-      <c r="B439">
-        <v>3.847216599305833</v>
-      </c>
-      <c r="C439">
-        <v>3.246963279046141</v>
-      </c>
-      <c r="D439">
-        <v>3.075502955704343</v>
-      </c>
-      <c r="E439">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
-      <c r="A440" s="1">
-        <v>438</v>
-      </c>
-      <c r="B440">
-        <v>3.816591373311434</v>
-      </c>
-      <c r="C440">
-        <v>3.485114904202599</v>
-      </c>
-      <c r="D440">
-        <v>3.065374763437106</v>
-      </c>
-      <c r="E440">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
-      <c r="A441" s="1">
-        <v>439</v>
-      </c>
-      <c r="B441">
-        <v>3.745402532365564</v>
-      </c>
-      <c r="C441">
-        <v>3.304387337886336</v>
-      </c>
-      <c r="D441">
-        <v>3.089617511091879</v>
-      </c>
-      <c r="E441">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
-      <c r="A442" s="1">
-        <v>440</v>
-      </c>
-      <c r="B442">
-        <v>3.950806938609257</v>
-      </c>
-      <c r="C442">
-        <v>3.930885890295662</v>
-      </c>
-      <c r="D442">
-        <v>2.84398954345003</v>
-      </c>
-      <c r="E442">
-        <v>385</v>
       </c>
     </row>
   </sheetData>
